--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6DF779-DD8A-4301-889C-AF9E214D4895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD790DC7-9A95-498F-874F-8DF96766CC53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 20191230" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 20200216" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,19 +89,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019 理论值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019 溢出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账户占比（10% 债券）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,6 +106,14 @@
   </si>
   <si>
     <t>当前投入额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年溢出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年理论值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -272,9 +268,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -606,21 +599,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1334,10 +1327,10 @@
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1379,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F952F159-CCE4-47E5-A079-7D80BB1CE1C7}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1401,21 +1394,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1497,11 +1490,11 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="10">
-        <f t="shared" ref="H4:H18" si="0">(B4-B3)/B3</f>
+        <f t="shared" ref="H4:H19" si="0">(B4-B3)/B3</f>
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" ref="I4:I18" si="1">(C4-C3)/C3</f>
+        <f t="shared" ref="I4:I19" si="1">(C4-C3)/C3</f>
         <v>-0.14000000000000001</v>
       </c>
       <c r="J4" s="20">
@@ -1668,7 +1661,7 @@
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11">
-        <f t="shared" ref="L9:L18" si="3">(F9-F8)/F8</f>
+        <f t="shared" ref="L9:L19" si="3">(F9-F8)/F8</f>
         <v>0.17667964122524962</v>
       </c>
     </row>
@@ -1743,7 +1736,7 @@
         <v>-5.8999999999999999E-3</v>
       </c>
       <c r="K11" s="11">
-        <f t="shared" ref="K11:K18" si="4">(E11-E10)/E10</f>
+        <f t="shared" ref="K11:K19" si="4">(E11-E10)/E10</f>
         <v>7.1719497078094566E-2</v>
       </c>
       <c r="L11" s="11">
@@ -1996,267 +1989,288 @@
         <v>-0.23086594373723088</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5">
-        <v>4022</v>
-      </c>
-      <c r="C18" s="5">
-        <v>5179</v>
-      </c>
-      <c r="D18" s="5">
-        <v>12381</v>
-      </c>
-      <c r="E18" s="5">
-        <v>12575</v>
-      </c>
-      <c r="F18" s="5">
-        <v>15707</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>0.33621262458471762</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="1"/>
-        <v>0.2425623800383877</v>
-      </c>
-      <c r="J18" s="12">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4096</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5267</v>
+      </c>
+      <c r="D18" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12906</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16123</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.36079734219269105</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.2636756238003839</v>
+      </c>
+      <c r="J18" s="10">
         <f>(D18-D17)/D17</f>
-        <v>0.20484624367458154</v>
-      </c>
-      <c r="K18" s="12">
+        <v>0.22615803814713897</v>
+      </c>
+      <c r="K18" s="10">
         <f t="shared" si="4"/>
-        <v>0.26585464062814579</v>
-      </c>
-      <c r="L18" s="12">
+        <v>0.29917455204348703</v>
+      </c>
+      <c r="L18" s="10">
         <f t="shared" si="3"/>
-        <v>0.60472006538618717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="13">
-        <f>B17+B17*H25</f>
-        <v>3302.6506219936632</v>
-      </c>
-      <c r="C20" s="13">
-        <f>C17+C17*I25</f>
-        <v>4650.9760630942556</v>
-      </c>
-      <c r="D20" s="13">
-        <f>D17+D17*J25</f>
-        <v>12152.747572515324</v>
-      </c>
-      <c r="E20" s="13">
-        <f>E17+E17*K25</f>
-        <v>11760.470275500251</v>
-      </c>
-      <c r="F20" s="13">
-        <f>F17+F17*L25</f>
-        <v>11760.70916467745</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="11">
-        <v>9.0109995894335437E-2</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0.11239795740567771</v>
-      </c>
-      <c r="J20" s="11">
-        <v>0.18305330363776501</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0.17823570921056242</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.19710071519578198</v>
+        <v>0.64722108704536163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3987</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5420</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12535</v>
+      </c>
+      <c r="E19" s="4">
+        <v>14371</v>
+      </c>
+      <c r="F19" s="4">
+        <v>15822</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="11">
+        <f t="shared" si="0"/>
+        <v>-2.6611328125E-2</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="1"/>
+        <v>2.9048794380102525E-2</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" ref="J19" si="5">(D19-D18)/D18</f>
+        <v>-5.1587301587301586E-3</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="4"/>
+        <v>0.1135130946846428</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="3"/>
+        <v>-1.8668982199342554E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="13">
+        <f>B18+B18*H26</f>
+        <v>4465.8109854366057</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" ref="C21:F21" si="6">C18+C18*I26</f>
+        <v>5853.8053032796361</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="6"/>
+        <v>14757.178017742115</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="6"/>
+        <v>15245.251651546392</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="6"/>
+        <v>19160.184654936449</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="11">
+        <f>H26</f>
+        <v>9.0285885116358822E-2</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" ref="I21:L21" si="7">I26</f>
+        <v>0.11141167709884869</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="7"/>
+        <v>0.17120460458270759</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="7"/>
+        <v>0.18125303359262301</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="7"/>
+        <v>0.1883759011931061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14">
+        <f>B19-B21</f>
+        <v>-478.81098543660573</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" ref="C22:F22" si="8">C19-C21</f>
+        <v>-433.80530327963606</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="8"/>
+        <v>-2222.1780177421151</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="8"/>
+        <v>-874.25165154639217</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="8"/>
+        <v>-3338.1846549364491</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="10">
+        <f>H19-H21</f>
+        <v>-0.11689721324135882</v>
+      </c>
+      <c r="I22" s="10">
+        <f>I18-I21</f>
+        <v>0.1522639467015352</v>
+      </c>
+      <c r="J22" s="10">
+        <f>J18-J21</f>
+        <v>5.4953433564431386E-2</v>
+      </c>
+      <c r="K22" s="10">
+        <f>K18-K21</f>
+        <v>0.11792151845086402</v>
+      </c>
+      <c r="L22" s="10">
+        <f>L18-L21</f>
+        <v>0.45884518585225553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="11">
+        <f>(B19/1000)</f>
+        <v>3.9870000000000001</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" ref="I25:L25" si="9">(C19/1000)</f>
+        <v>5.42</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="9"/>
+        <v>12.535</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="9"/>
+        <v>14.371</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" si="9"/>
+        <v>15.821999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="14">
-        <f>B18-B20</f>
-        <v>719.34937800633679</v>
-      </c>
-      <c r="C21" s="14">
-        <f>C18-C20</f>
-        <v>528.02393690574445</v>
-      </c>
-      <c r="D21" s="14">
-        <f>D18-D20</f>
-        <v>228.25242748467645</v>
-      </c>
-      <c r="E21" s="14">
-        <f>E18-E20</f>
-        <v>814.52972449974914</v>
-      </c>
-      <c r="F21" s="14">
-        <f>F18-F20</f>
-        <v>3946.2908353225503</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="10">
-        <f>H18-H20</f>
-        <v>0.24610262869038219</v>
-      </c>
-      <c r="I21" s="10">
-        <f>I18-I20</f>
-        <v>0.13016442263271</v>
-      </c>
-      <c r="J21" s="10">
-        <f>J18-J20</f>
-        <v>2.1792940036816533E-2</v>
-      </c>
-      <c r="K21" s="10">
-        <f>K18-K20</f>
-        <v>8.7618931417583368E-2</v>
-      </c>
-      <c r="L21" s="10">
-        <f>L18-L20</f>
-        <v>0.40761935019040518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="11">
-        <f>(B18/1000)</f>
-        <v>4.0220000000000002</v>
-      </c>
-      <c r="I24" s="11">
-        <f>(C18/1000)</f>
-        <v>5.1790000000000003</v>
-      </c>
-      <c r="J24" s="11">
-        <f>(D18/1000)</f>
-        <v>12.381</v>
-      </c>
-      <c r="K24" s="11">
-        <f>(E18/1000)</f>
-        <v>12.574999999999999</v>
-      </c>
-      <c r="L24" s="11">
-        <f>(F18/1000)</f>
-        <v>15.707000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="15">
-        <f>POWER(H24,(1/15))-1</f>
-        <v>9.7226120263675497E-2</v>
-      </c>
-      <c r="I25" s="15">
-        <f>POWER(I24,(1/15))-1</f>
-        <v>0.11587717444679835</v>
-      </c>
-      <c r="J25" s="15">
-        <f>POWER(J24,(1/15))-1</f>
-        <v>0.18263405727085669</v>
-      </c>
-      <c r="K25" s="15">
-        <f>POWER(K24,(1/15))-1</f>
-        <v>0.18386050689553568</v>
-      </c>
-      <c r="L25" s="15">
-        <f>POWER(L24,(1/15))-1</f>
-        <v>0.20154364167117378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="15">
-        <f>0.5-J21</f>
-        <v>0.47820705996318347</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" ref="K27:L27" si="5">0.5-K21</f>
-        <v>0.41238106858241663</v>
-      </c>
-      <c r="L27" s="15">
-        <f t="shared" si="5"/>
-        <v>9.2380649809594817E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="8"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="15">
+        <f>POWER(H25,(1/16))-1</f>
+        <v>9.0285885116358822E-2</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" ref="I26:L26" si="10">POWER(I25,(1/16))-1</f>
+        <v>0.11141167709884869</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="10"/>
+        <v>0.17120460458270759</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="10"/>
+        <v>0.18125303359262301</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="10"/>
+        <v>0.1883759011931061</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -2264,71 +2278,96 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="15">
-        <f>J27/($J$27+$K$27+$L$27)</f>
-        <v>0.48649262366539148</v>
+        <f>0.5-J22</f>
+        <v>0.44504656643556861</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" ref="K28:L28" si="6">K27/($J$27+$K$27+$L$27)</f>
-        <v>0.41952611076056284</v>
+        <f t="shared" ref="K28:L28" si="11">0.5-K22</f>
+        <v>0.38207848154913598</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="6"/>
-        <v>9.398126557404568E-2</v>
-      </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
+        <f t="shared" si="11"/>
+        <v>4.1154814147744467E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="23">
+      <c r="A29" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="15">
+        <f>J28/($J$28+$K$28+$L$28)</f>
+        <v>0.51256119811711165</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" ref="K29:L29" si="12">K28/($J$28+$K$28+$L$28)</f>
+        <v>0.4400407037090226</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="12"/>
+        <v>4.7398098173865783E-2</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="22">
         <v>900</v>
       </c>
-      <c r="J29" s="25">
-        <f>$C$29*J28</f>
-        <v>437.8433612988523</v>
-      </c>
-      <c r="K29" s="25">
-        <f t="shared" ref="K29:L29" si="7">$C$29*K28</f>
-        <v>377.57349968450654</v>
-      </c>
-      <c r="L29" s="25">
-        <f t="shared" si="7"/>
-        <v>84.583139016641113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="15">
-        <f>J28*0.9</f>
-        <v>0.43784336129885232</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" ref="K32:L32" si="8">K28*0.9</f>
-        <v>0.37757349968450654</v>
-      </c>
-      <c r="L32" s="15">
-        <f t="shared" si="8"/>
-        <v>8.4583139016641121E-2</v>
+      <c r="J30" s="24">
+        <f>$C$30*J29</f>
+        <v>461.30507830540046</v>
+      </c>
+      <c r="K30" s="24">
+        <f t="shared" ref="K30:L30" si="13">$C$30*K29</f>
+        <v>396.03663333812034</v>
+      </c>
+      <c r="L30" s="24">
+        <f t="shared" si="13"/>
+        <v>42.658288356479204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="33" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="15">
+        <f>J29*0.9</f>
+        <v>0.46130507830540052</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" ref="K33:L33" si="14">K29*0.9</f>
+        <v>0.39603663333812034</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="14"/>
+        <v>4.2658288356479203E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD790DC7-9A95-498F-874F-8DF96766CC53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA19BCA-DCA4-468D-AB5D-4E394F3139FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 20200216" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 20200221" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2035,40 +2035,40 @@
         <v>2020</v>
       </c>
       <c r="B19" s="4">
-        <v>3987</v>
+        <v>4149</v>
       </c>
       <c r="C19" s="4">
-        <v>5420</v>
+        <v>5784</v>
       </c>
       <c r="D19" s="4">
-        <v>12535</v>
+        <v>13240</v>
       </c>
       <c r="E19" s="4">
-        <v>14371</v>
+        <v>14541</v>
       </c>
       <c r="F19" s="4">
-        <v>15822</v>
+        <v>16398</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>-2.6611328125E-2</v>
+        <v>1.2939453125E-2</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
-        <v>2.9048794380102525E-2</v>
+        <v>9.8158344408581732E-2</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" ref="J19" si="5">(D19-D18)/D18</f>
-        <v>-5.1587301587301586E-3</v>
+        <v>5.0793650793650794E-2</v>
       </c>
       <c r="K19" s="11">
         <f t="shared" si="4"/>
-        <v>0.1135130946846428</v>
+        <v>0.12668526266852626</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="3"/>
-        <v>-1.8668982199342554E-2</v>
+        <v>1.7056379085778083E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2077,44 +2077,44 @@
       </c>
       <c r="B21" s="13">
         <f>B18+B18*H26</f>
-        <v>4465.8109854366057</v>
+        <v>4476.9414291925332</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" ref="C21:F21" si="6">C18+C18*I26</f>
-        <v>5853.8053032796361</v>
+        <v>5877.6346366863045</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="6"/>
-        <v>14757.178017742115</v>
+        <v>14807.731949387855</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="6"/>
-        <v>15245.251651546392</v>
+        <v>15256.460990823012</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="6"/>
-        <v>19160.184654936449</v>
+        <v>19203.053157136485</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="11">
         <f>H26</f>
-        <v>9.0285885116358822E-2</v>
+        <v>9.3003278611458295E-2</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" ref="I21:L21" si="7">I26</f>
-        <v>0.11141167709884869</v>
+        <v>0.11593594772855598</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="7"/>
-        <v>0.17120460458270759</v>
+        <v>0.17521682137998851</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="7"/>
-        <v>0.18125303359262301</v>
+        <v>0.18212157065109347</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="7"/>
-        <v>0.1883759011931061</v>
+        <v>0.19103474273624532</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2123,44 +2123,44 @@
       </c>
       <c r="B22" s="14">
         <f>B19-B21</f>
-        <v>-478.81098543660573</v>
+        <v>-327.94142919253318</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" ref="C22:F22" si="8">C19-C21</f>
-        <v>-433.80530327963606</v>
+        <v>-93.634636686304475</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="8"/>
-        <v>-2222.1780177421151</v>
+        <v>-1567.7319493878549</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="8"/>
-        <v>-874.25165154639217</v>
+        <v>-715.46099082301225</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="8"/>
-        <v>-3338.1846549364491</v>
+        <v>-2805.0531571364845</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="10">
         <f>H19-H21</f>
-        <v>-0.11689721324135882</v>
+        <v>-8.0063825486458295E-2</v>
       </c>
       <c r="I22" s="10">
-        <f>I18-I21</f>
-        <v>0.1522639467015352</v>
+        <f t="shared" ref="I22:L22" si="9">I19-I21</f>
+        <v>-1.7777603319974244E-2</v>
       </c>
       <c r="J22" s="10">
-        <f>J18-J21</f>
-        <v>5.4953433564431386E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.12442317058633771</v>
       </c>
       <c r="K22" s="10">
-        <f>K18-K21</f>
-        <v>0.11792151845086402</v>
+        <f t="shared" si="9"/>
+        <v>-5.5436307982567212E-2</v>
       </c>
       <c r="L22" s="10">
-        <f>L18-L21</f>
-        <v>0.45884518585225553</v>
+        <f t="shared" si="9"/>
+        <v>-0.17397836365046723</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2201,23 +2201,23 @@
       <c r="G25" s="4"/>
       <c r="H25" s="11">
         <f>(B19/1000)</f>
-        <v>3.9870000000000001</v>
+        <v>4.149</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" ref="I25:L25" si="9">(C19/1000)</f>
-        <v>5.42</v>
+        <f t="shared" ref="I25:L25" si="10">(C19/1000)</f>
+        <v>5.7839999999999998</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" si="9"/>
-        <v>12.535</v>
+        <f t="shared" si="10"/>
+        <v>13.24</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="9"/>
-        <v>14.371</v>
+        <f t="shared" si="10"/>
+        <v>14.541</v>
       </c>
       <c r="L25" s="11">
-        <f t="shared" si="9"/>
-        <v>15.821999999999999</v>
+        <f t="shared" si="10"/>
+        <v>16.398</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2232,23 +2232,23 @@
       <c r="G26" s="3"/>
       <c r="H26" s="15">
         <f>POWER(H25,(1/16))-1</f>
-        <v>9.0285885116358822E-2</v>
+        <v>9.3003278611458295E-2</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" ref="I26:L26" si="10">POWER(I25,(1/16))-1</f>
-        <v>0.11141167709884869</v>
+        <f t="shared" ref="I26:L26" si="11">POWER(I25,(1/16))-1</f>
+        <v>0.11593594772855598</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="10"/>
-        <v>0.17120460458270759</v>
+        <f t="shared" si="11"/>
+        <v>0.17521682137998851</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="10"/>
-        <v>0.18125303359262301</v>
+        <f t="shared" si="11"/>
+        <v>0.18212157065109347</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="10"/>
-        <v>0.1883759011931061</v>
+        <f t="shared" si="11"/>
+        <v>0.19103474273624532</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2279,15 +2279,15 @@
       <c r="I28" s="17"/>
       <c r="J28" s="15">
         <f>0.5-J22</f>
-        <v>0.44504656643556861</v>
+        <v>0.62442317058633767</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" ref="K28:L28" si="11">0.5-K22</f>
-        <v>0.38207848154913598</v>
+        <f t="shared" ref="K28:L28" si="12">0.5-K22</f>
+        <v>0.55543630798256727</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="11"/>
-        <v>4.1154814147744467E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.67397836365046726</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2304,15 +2304,15 @@
       <c r="I29" s="17"/>
       <c r="J29" s="15">
         <f>J28/($J$28+$K$28+$L$28)</f>
-        <v>0.51256119811711165</v>
+        <v>0.3368272868131727</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" ref="K29:L29" si="12">K28/($J$28+$K$28+$L$28)</f>
-        <v>0.4400407037090226</v>
+        <f t="shared" ref="K29:L29" si="13">K28/($J$28+$K$28+$L$28)</f>
+        <v>0.29961428952038849</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="12"/>
-        <v>4.7398098173865783E-2</v>
+        <f t="shared" si="13"/>
+        <v>0.36355842366643881</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -2328,15 +2328,15 @@
       </c>
       <c r="J30" s="24">
         <f>$C$30*J29</f>
-        <v>461.30507830540046</v>
+        <v>303.14455813185543</v>
       </c>
       <c r="K30" s="24">
-        <f t="shared" ref="K30:L30" si="13">$C$30*K29</f>
-        <v>396.03663333812034</v>
+        <f t="shared" ref="K30:L30" si="14">$C$30*K29</f>
+        <v>269.65286056834964</v>
       </c>
       <c r="L30" s="24">
-        <f t="shared" si="13"/>
-        <v>42.658288356479204</v>
+        <f t="shared" si="14"/>
+        <v>327.20258129979493</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2350,15 +2350,15 @@
       </c>
       <c r="J33" s="15">
         <f>J29*0.9</f>
-        <v>0.46130507830540052</v>
+        <v>0.30314455813185542</v>
       </c>
       <c r="K33" s="15">
-        <f t="shared" ref="K33:L33" si="14">K29*0.9</f>
-        <v>0.39603663333812034</v>
+        <f t="shared" ref="K33:L33" si="15">K29*0.9</f>
+        <v>0.26965286056834964</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" si="14"/>
-        <v>4.2658288356479203E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.32720258129979496</v>
       </c>
     </row>
   </sheetData>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA19BCA-DCA4-468D-AB5D-4E394F3139FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259F5714-9459-442F-9E2D-F1109520C716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 20200221" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 2020707" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2035,40 +2035,40 @@
         <v>2020</v>
       </c>
       <c r="B19" s="4">
-        <v>4149</v>
+        <v>4698</v>
       </c>
       <c r="C19" s="4">
-        <v>5784</v>
+        <v>6380</v>
       </c>
       <c r="D19" s="4">
-        <v>13240</v>
+        <v>14780</v>
       </c>
       <c r="E19" s="4">
-        <v>14541</v>
+        <v>18543</v>
       </c>
       <c r="F19" s="4">
-        <v>16398</v>
+        <v>21689</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>1.2939453125E-2</v>
+        <v>0.14697265625</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
-        <v>9.8158344408581732E-2</v>
+        <v>0.21131573951015759</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" ref="J19" si="5">(D19-D18)/D18</f>
-        <v>5.0793650793650794E-2</v>
+        <v>0.17301587301587301</v>
       </c>
       <c r="K19" s="11">
         <f t="shared" si="4"/>
-        <v>0.12668526266852626</v>
+        <v>0.43677359367735935</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="3"/>
-        <v>1.7056379085778083E-2</v>
+        <v>0.34522111269614836</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2077,44 +2077,44 @@
       </c>
       <c r="B21" s="13">
         <f>B18+B18*H26</f>
-        <v>4476.9414291925332</v>
+        <v>4511.8485298802943</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" ref="C21:F21" si="6">C18+C18*I26</f>
-        <v>5877.6346366863045</v>
+        <v>5913.7724641483992</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="6"/>
-        <v>14807.731949387855</v>
+        <v>14909.916018182277</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="6"/>
-        <v>15256.460990823012</v>
+        <v>15490.053247647284</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="6"/>
-        <v>19203.053157136485</v>
+        <v>19541.631728289802</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="11">
         <f>H26</f>
-        <v>9.3003278611458295E-2</v>
+        <v>0.10152551999030623</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" ref="I21:L21" si="7">I26</f>
-        <v>0.11593594772855598</v>
+        <v>0.12279712628600703</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="7"/>
-        <v>0.17521682137998851</v>
+        <v>0.18332666810970455</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="7"/>
-        <v>0.18212157065109347</v>
+        <v>0.20022107916064491</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="7"/>
-        <v>0.19103474273624532</v>
+        <v>0.21203446804501658</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2123,44 +2123,44 @@
       </c>
       <c r="B22" s="14">
         <f>B19-B21</f>
-        <v>-327.94142919253318</v>
+        <v>186.15147011970566</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" ref="C22:F22" si="8">C19-C21</f>
-        <v>-93.634636686304475</v>
+        <v>466.22753585160081</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="8"/>
-        <v>-1567.7319493878549</v>
+        <v>-129.91601818227718</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="8"/>
-        <v>-715.46099082301225</v>
+        <v>3052.9467523527164</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="8"/>
-        <v>-2805.0531571364845</v>
+        <v>2147.3682717101983</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="10">
         <f>H19-H21</f>
-        <v>-8.0063825486458295E-2</v>
+        <v>4.5447136259693766E-2</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" ref="I22:L22" si="9">I19-I21</f>
-        <v>-1.7777603319974244E-2</v>
+        <v>8.8518613224150555E-2</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="9"/>
-        <v>-0.12442317058633771</v>
+        <v>-1.0310795093831537E-2</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="9"/>
-        <v>-5.5436307982567212E-2</v>
+        <v>0.23655251451671444</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="9"/>
-        <v>-0.17397836365046723</v>
+        <v>0.13318664465113178</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2201,23 +2201,23 @@
       <c r="G25" s="4"/>
       <c r="H25" s="11">
         <f>(B19/1000)</f>
-        <v>4.149</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25:L25" si="10">(C19/1000)</f>
-        <v>5.7839999999999998</v>
+        <v>6.38</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="10"/>
-        <v>13.24</v>
+        <v>14.78</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="10"/>
-        <v>14.541</v>
+        <v>18.542999999999999</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="10"/>
-        <v>16.398</v>
+        <v>21.689</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2232,23 +2232,23 @@
       <c r="G26" s="3"/>
       <c r="H26" s="15">
         <f>POWER(H25,(1/16))-1</f>
-        <v>9.3003278611458295E-2</v>
+        <v>0.10152551999030623</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" ref="I26:L26" si="11">POWER(I25,(1/16))-1</f>
-        <v>0.11593594772855598</v>
+        <v>0.12279712628600703</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="11"/>
-        <v>0.17521682137998851</v>
+        <v>0.18332666810970455</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="11"/>
-        <v>0.18212157065109347</v>
+        <v>0.20022107916064491</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="11"/>
-        <v>0.19103474273624532</v>
+        <v>0.21203446804501658</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2278,16 +2278,16 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="15">
-        <f>0.5-J22</f>
-        <v>0.62442317058633767</v>
+        <f>0.2-J22</f>
+        <v>0.21031079509383155</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" ref="K28:L28" si="12">0.5-K22</f>
-        <v>0.55543630798256727</v>
+        <f t="shared" ref="K28:L28" si="12">0.2-K22</f>
+        <v>-3.6552514516714429E-2</v>
       </c>
       <c r="L28" s="15">
         <f t="shared" si="12"/>
-        <v>0.67397836365046726</v>
+        <v>6.6813355348868231E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2304,15 +2304,15 @@
       <c r="I29" s="17"/>
       <c r="J29" s="15">
         <f>J28/($J$28+$K$28+$L$28)</f>
-        <v>0.3368272868131727</v>
+        <v>0.87421276529264702</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" ref="K29:L29" si="13">K28/($J$28+$K$28+$L$28)</f>
-        <v>0.29961428952038849</v>
+        <v>-0.15194025004660247</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="13"/>
-        <v>0.36355842366643881</v>
+        <v>0.27772748475395548</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -2328,15 +2328,15 @@
       </c>
       <c r="J30" s="24">
         <f>$C$30*J29</f>
-        <v>303.14455813185543</v>
+        <v>786.79148876338229</v>
       </c>
       <c r="K30" s="24">
         <f t="shared" ref="K30:L30" si="14">$C$30*K29</f>
-        <v>269.65286056834964</v>
+        <v>-136.74622504194221</v>
       </c>
       <c r="L30" s="24">
         <f t="shared" si="14"/>
-        <v>327.20258129979493</v>
+        <v>249.95473627855992</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2350,15 +2350,15 @@
       </c>
       <c r="J33" s="15">
         <f>J29*0.9</f>
-        <v>0.30314455813185542</v>
+        <v>0.78679148876338234</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" ref="K33:L33" si="15">K29*0.9</f>
-        <v>0.26965286056834964</v>
+        <v>-0.13674622504194223</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="15"/>
-        <v>0.32720258129979496</v>
+        <v>0.24995473627855994</v>
       </c>
     </row>
   </sheetData>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259F5714-9459-442F-9E2D-F1109520C716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DA544A-84D1-4029-A094-C3A9622B5845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 2020707" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 2020921" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -215,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -271,7 +265,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,21 +592,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1327,10 +1320,10 @@
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1372,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F952F159-CCE4-47E5-A079-7D80BB1CE1C7}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1389,26 +1382,27 @@
     <col min="7" max="7" width="5.625" customWidth="1"/>
     <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2035,40 +2029,40 @@
         <v>2020</v>
       </c>
       <c r="B19" s="4">
-        <v>4698</v>
+        <v>4737</v>
       </c>
       <c r="C19" s="4">
-        <v>6380</v>
+        <v>6469</v>
       </c>
       <c r="D19" s="4">
-        <v>14780</v>
+        <v>15051</v>
       </c>
       <c r="E19" s="4">
-        <v>18543</v>
+        <v>18459</v>
       </c>
       <c r="F19" s="4">
-        <v>21689</v>
+        <v>23307</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>0.14697265625</v>
+        <v>0.156494140625</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
-        <v>0.21131573951015759</v>
+        <v>0.22821340421492312</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" ref="J19" si="5">(D19-D18)/D18</f>
-        <v>0.17301587301587301</v>
+        <v>0.19452380952380952</v>
       </c>
       <c r="K19" s="11">
         <f t="shared" si="4"/>
-        <v>0.43677359367735935</v>
+        <v>0.43026499302649929</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="3"/>
-        <v>0.34522111269614836</v>
+        <v>0.44557464491719906</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2077,44 +2071,44 @@
       </c>
       <c r="B21" s="13">
         <f>B18+B18*H26</f>
-        <v>4511.8485298802943</v>
+        <v>4514.1803868278766</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" ref="C21:F21" si="6">C18+C18*I26</f>
-        <v>5913.7724641483992</v>
+        <v>5918.8950621448294</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="6"/>
-        <v>14909.916018182277</v>
+        <v>14926.857260378747</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="6"/>
-        <v>15490.053247647284</v>
+        <v>15485.658275381795</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="6"/>
-        <v>19541.631728289802</v>
+        <v>19629.704074739522</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="11">
         <f>H26</f>
-        <v>0.10152551999030623</v>
+        <v>0.10209482100289957</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" ref="I21:L21" si="7">I26</f>
-        <v>0.12279712628600703</v>
+        <v>0.12376970991927649</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="7"/>
-        <v>0.18332666810970455</v>
+        <v>0.18467121114117035</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="7"/>
-        <v>0.20022107916064491</v>
+        <v>0.19988054202555361</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="7"/>
-        <v>0.21203446804501658</v>
+        <v>0.21749699651054533</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2123,44 +2117,44 @@
       </c>
       <c r="B22" s="14">
         <f>B19-B21</f>
-        <v>186.15147011970566</v>
+        <v>222.81961317212335</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" ref="C22:F22" si="8">C19-C21</f>
-        <v>466.22753585160081</v>
+        <v>550.10493785517065</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="8"/>
-        <v>-129.91601818227718</v>
+        <v>124.14273962125299</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="8"/>
-        <v>3052.9467523527164</v>
+        <v>2973.3417246182053</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="8"/>
-        <v>2147.3682717101983</v>
+        <v>3677.2959252604778</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="10">
         <f>H19-H21</f>
-        <v>4.5447136259693766E-2</v>
+        <v>5.4399319622100428E-2</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" ref="I22:L22" si="9">I19-I21</f>
-        <v>8.8518613224150555E-2</v>
+        <v>0.10444369429564662</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="9"/>
-        <v>-1.0310795093831537E-2</v>
+        <v>9.8525983826391605E-3</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="9"/>
-        <v>0.23655251451671444</v>
+        <v>0.23038445100094568</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="9"/>
-        <v>0.13318664465113178</v>
+        <v>0.22807764840665373</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2201,30 +2195,30 @@
       <c r="G25" s="4"/>
       <c r="H25" s="11">
         <f>(B19/1000)</f>
-        <v>4.6980000000000004</v>
+        <v>4.7370000000000001</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25:L25" si="10">(C19/1000)</f>
-        <v>6.38</v>
+        <v>6.4690000000000003</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="10"/>
-        <v>14.78</v>
+        <v>15.051</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="10"/>
-        <v>18.542999999999999</v>
+        <v>18.459</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="10"/>
-        <v>21.689</v>
+        <v>23.306999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2232,23 +2226,23 @@
       <c r="G26" s="3"/>
       <c r="H26" s="15">
         <f>POWER(H25,(1/16))-1</f>
-        <v>0.10152551999030623</v>
+        <v>0.10209482100289957</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" ref="I26:L26" si="11">POWER(I25,(1/16))-1</f>
-        <v>0.12279712628600703</v>
+        <v>0.12376970991927649</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="11"/>
-        <v>0.18332666810970455</v>
+        <f>POWER(J25,(1/16))-1</f>
+        <v>0.18467121114117035</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="11"/>
-        <v>0.20022107916064491</v>
+        <v>0.19988054202555361</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="11"/>
-        <v>0.21203446804501658</v>
+        <v>0.21749699651054533</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2266,11 +2260,11 @@
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:15" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -2278,23 +2272,23 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="15">
-        <f>0.2-J22</f>
-        <v>0.21031079509383155</v>
+        <f>(K22+L22)/(J22+K22+L22)</f>
+        <v>0.97896158623863594</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" ref="K28:L28" si="12">0.2-K22</f>
-        <v>-3.6552514516714429E-2</v>
+        <f>(J22+L22)/(J22+K22+L22)</f>
+        <v>0.50805633030946107</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="12"/>
-        <v>6.6813355348868231E-2</v>
+        <f>(J22+K22)/(J22+K22+L22)</f>
+        <v>0.51298208345190288</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="8"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -2304,15 +2298,15 @@
       <c r="I29" s="17"/>
       <c r="J29" s="15">
         <f>J28/($J$28+$K$28+$L$28)</f>
-        <v>0.87421276529264702</v>
+        <v>0.48948079311931797</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" ref="K29:L29" si="13">K28/($J$28+$K$28+$L$28)</f>
-        <v>-0.15194025004660247</v>
+        <f>K28/($J$28+$K$28+$L$28)</f>
+        <v>0.25402816515473053</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="13"/>
-        <v>0.27772748475395548</v>
+        <f>L28/($J$28+$K$28+$L$28)</f>
+        <v>0.25649104172595144</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -2326,39 +2320,34 @@
       <c r="C30" s="22">
         <v>900</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="23">
         <f>$C$30*J29</f>
-        <v>786.79148876338229</v>
-      </c>
-      <c r="K30" s="24">
-        <f t="shared" ref="K30:L30" si="14">$C$30*K29</f>
-        <v>-136.74622504194221</v>
-      </c>
-      <c r="L30" s="24">
-        <f t="shared" si="14"/>
-        <v>249.95473627855992</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+        <v>440.53271380738619</v>
+      </c>
+      <c r="K30" s="23">
+        <f t="shared" ref="K30:L30" si="12">$C$30*K29</f>
+        <v>228.62534863925748</v>
+      </c>
+      <c r="L30" s="23">
+        <f t="shared" si="12"/>
+        <v>230.8419375533563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J32" s="15">
         <f>J29*0.9</f>
-        <v>0.78679148876338234</v>
-      </c>
-      <c r="K33" s="15">
-        <f t="shared" ref="K33:L33" si="15">K29*0.9</f>
-        <v>-0.13674622504194223</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" si="15"/>
-        <v>0.24995473627855994</v>
+        <v>0.44053271380738618</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" ref="K32:L32" si="13">K29*0.9</f>
+        <v>0.22862534863925749</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="13"/>
+        <v>0.2308419375533563</v>
       </c>
     </row>
   </sheetData>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DA544A-84D1-4029-A094-C3A9622B5845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51859AAF-AEBF-4C36-9FEF-D4EE9A5CC094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1367,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F952F159-CCE4-47E5-A079-7D80BB1CE1C7}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2029,40 +2029,40 @@
         <v>2020</v>
       </c>
       <c r="B19" s="4">
-        <v>4737</v>
+        <v>4885</v>
       </c>
       <c r="C19" s="4">
-        <v>6469</v>
+        <v>6351</v>
       </c>
       <c r="D19" s="4">
-        <v>15051</v>
+        <v>14593</v>
       </c>
       <c r="E19" s="4">
-        <v>18459</v>
+        <v>18121</v>
       </c>
       <c r="F19" s="4">
-        <v>23307</v>
+        <v>24196</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>0.156494140625</v>
+        <v>0.192626953125</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
-        <v>0.22821340421492312</v>
+        <v>0.20580975887602052</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" ref="J19" si="5">(D19-D18)/D18</f>
-        <v>0.19452380952380952</v>
+        <v>0.15817460317460316</v>
       </c>
       <c r="K19" s="11">
         <f t="shared" si="4"/>
-        <v>0.43026499302649929</v>
+        <v>0.40407562374089573</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="3"/>
-        <v>0.44557464491719906</v>
+        <v>0.50071326676176886</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2071,44 +2071,44 @@
       </c>
       <c r="B21" s="13">
         <f>B18+B18*H26</f>
-        <v>4514.1803868278766</v>
+        <v>4522.8687335214472</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" ref="C21:F21" si="6">C18+C18*I26</f>
-        <v>5918.8950621448294</v>
+        <v>5912.0888249594082</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="6"/>
-        <v>14926.857260378747</v>
+        <v>14898.05528373056</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="6"/>
-        <v>15485.658275381795</v>
+        <v>15467.782114479516</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="6"/>
-        <v>19629.704074739522</v>
+        <v>19675.683478448769</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="11">
         <f>H26</f>
-        <v>0.10209482100289957</v>
+        <v>0.10421599939488457</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" ref="I21:L21" si="7">I26</f>
-        <v>0.12376970991927649</v>
+        <v>0.12247746819050853</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="7"/>
-        <v>0.18467121114117035</v>
+        <v>0.18238533997861595</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="7"/>
-        <v>0.19988054202555361</v>
+        <v>0.19849543735313158</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="7"/>
-        <v>0.21749699651054533</v>
+        <v>0.22034878610982878</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2117,44 +2117,44 @@
       </c>
       <c r="B22" s="14">
         <f>B19-B21</f>
-        <v>222.81961317212335</v>
+        <v>362.13126647855279</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" ref="C22:F22" si="8">C19-C21</f>
-        <v>550.10493785517065</v>
+        <v>438.91117504059184</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="8"/>
-        <v>124.14273962125299</v>
+        <v>-305.0552837305604</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="8"/>
-        <v>2973.3417246182053</v>
+        <v>2653.2178855204838</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="8"/>
-        <v>3677.2959252604778</v>
+        <v>4520.3165215512308</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="10">
         <f>H19-H21</f>
-        <v>5.4399319622100428E-2</v>
+        <v>8.8410953730115427E-2</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" ref="I22:L22" si="9">I19-I21</f>
-        <v>0.10444369429564662</v>
+        <v>8.3332290685511984E-2</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="9"/>
-        <v>9.8525983826391605E-3</v>
+        <v>-2.4210736804012783E-2</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="9"/>
-        <v>0.23038445100094568</v>
+        <v>0.20558018638776415</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="9"/>
-        <v>0.22807764840665373</v>
+        <v>0.28036448065194008</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2195,23 +2195,23 @@
       <c r="G25" s="4"/>
       <c r="H25" s="11">
         <f>(B19/1000)</f>
-        <v>4.7370000000000001</v>
+        <v>4.8849999999999998</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25:L25" si="10">(C19/1000)</f>
-        <v>6.4690000000000003</v>
+        <v>6.351</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="10"/>
-        <v>15.051</v>
+        <v>14.593</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="10"/>
-        <v>18.459</v>
+        <v>18.120999999999999</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="10"/>
-        <v>23.306999999999999</v>
+        <v>24.196000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2226,23 +2226,23 @@
       <c r="G26" s="3"/>
       <c r="H26" s="15">
         <f>POWER(H25,(1/16))-1</f>
-        <v>0.10209482100289957</v>
+        <v>0.10421599939488457</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" ref="I26:L26" si="11">POWER(I25,(1/16))-1</f>
-        <v>0.12376970991927649</v>
+        <v>0.12247746819050853</v>
       </c>
       <c r="J26" s="15">
         <f>POWER(J25,(1/16))-1</f>
-        <v>0.18467121114117035</v>
+        <v>0.18238533997861595</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="11"/>
-        <v>0.19988054202555361</v>
+        <v>0.19849543735313158</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="11"/>
-        <v>0.21749699651054533</v>
+        <v>0.22034878610982878</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2273,15 +2273,15 @@
       <c r="I28" s="17"/>
       <c r="J28" s="15">
         <f>(K22+L22)/(J22+K22+L22)</f>
-        <v>0.97896158623863594</v>
+        <v>1.0524343896313932</v>
       </c>
       <c r="K28" s="15">
         <f>(J22+L22)/(J22+K22+L22)</f>
-        <v>0.50805633030946107</v>
+        <v>0.55476482682824291</v>
       </c>
       <c r="L28" s="15">
         <f>(J22+K22)/(J22+K22+L22)</f>
-        <v>0.51298208345190288</v>
+        <v>0.39280078354036402</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2298,15 +2298,15 @@
       <c r="I29" s="17"/>
       <c r="J29" s="15">
         <f>J28/($J$28+$K$28+$L$28)</f>
-        <v>0.48948079311931797</v>
+        <v>0.52621719481569662</v>
       </c>
       <c r="K29" s="15">
         <f>K28/($J$28+$K$28+$L$28)</f>
-        <v>0.25402816515473053</v>
+        <v>0.27738241341412145</v>
       </c>
       <c r="L29" s="15">
         <f>L28/($J$28+$K$28+$L$28)</f>
-        <v>0.25649104172595144</v>
+        <v>0.19640039177018201</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -2322,15 +2322,15 @@
       </c>
       <c r="J30" s="23">
         <f>$C$30*J29</f>
-        <v>440.53271380738619</v>
+        <v>473.59547533412695</v>
       </c>
       <c r="K30" s="23">
         <f t="shared" ref="K30:L30" si="12">$C$30*K29</f>
-        <v>228.62534863925748</v>
+        <v>249.6441720727093</v>
       </c>
       <c r="L30" s="23">
         <f t="shared" si="12"/>
-        <v>230.8419375533563</v>
+        <v>176.76035259316382</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2339,15 +2339,15 @@
       </c>
       <c r="J32" s="15">
         <f>J29*0.9</f>
-        <v>0.44053271380738618</v>
+        <v>0.47359547533412699</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" ref="K32:L32" si="13">K29*0.9</f>
-        <v>0.22862534863925749</v>
+        <v>0.24964417207270931</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="13"/>
-        <v>0.2308419375533563</v>
+        <v>0.17676035259316381</v>
       </c>
     </row>
   </sheetData>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51859AAF-AEBF-4C36-9FEF-D4EE9A5CC094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D36AF2-BF7B-47D3-9605-F764D75CFA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2029,24 +2029,24 @@
         <v>2020</v>
       </c>
       <c r="B19" s="4">
-        <v>4885</v>
+        <v>4980</v>
       </c>
       <c r="C19" s="4">
         <v>6351</v>
       </c>
       <c r="D19" s="4">
-        <v>14593</v>
+        <v>14857</v>
       </c>
       <c r="E19" s="4">
-        <v>18121</v>
+        <v>17241</v>
       </c>
       <c r="F19" s="4">
-        <v>24196</v>
+        <v>24457</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>0.192626953125</v>
+        <v>0.2158203125</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
@@ -2054,15 +2054,15 @@
       </c>
       <c r="J19" s="11">
         <f t="shared" ref="J19" si="5">(D19-D18)/D18</f>
-        <v>0.15817460317460316</v>
+        <v>0.17912698412698413</v>
       </c>
       <c r="K19" s="11">
         <f t="shared" si="4"/>
-        <v>0.40407562374089573</v>
+        <v>0.33589028358902834</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="3"/>
-        <v>0.50071326676176886</v>
+        <v>0.51690132109408915</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B21" s="13">
         <f>B18+B18*H26</f>
-        <v>4522.8687335214472</v>
+        <v>4528.3165863051672</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" ref="C21:F21" si="6">C18+C18*I26</f>
@@ -2079,20 +2079,20 @@
       </c>
       <c r="D21" s="13">
         <f t="shared" si="6"/>
-        <v>14898.05528373056</v>
+        <v>14914.759003985029</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="6"/>
-        <v>15467.782114479516</v>
+        <v>15419.731588563722</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="6"/>
-        <v>19675.683478448769</v>
+        <v>19688.881854866297</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="11">
         <f>H26</f>
-        <v>0.10421599939488457</v>
+        <v>0.10554604157840997</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" ref="I21:L21" si="7">I26</f>
@@ -2100,15 +2100,15 @@
       </c>
       <c r="J21" s="11">
         <f t="shared" si="7"/>
-        <v>0.18238533997861595</v>
+        <v>0.18371103206230388</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="7"/>
-        <v>0.19849543735313158</v>
+        <v>0.19477232206444461</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="7"/>
-        <v>0.22034878610982878</v>
+        <v>0.22116739160617116</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B22" s="14">
         <f>B19-B21</f>
-        <v>362.13126647855279</v>
+        <v>451.68341369483278</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" ref="C22:F22" si="8">C19-C21</f>
@@ -2125,20 +2125,20 @@
       </c>
       <c r="D22" s="14">
         <f t="shared" si="8"/>
-        <v>-305.0552837305604</v>
+        <v>-57.759003985029267</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="8"/>
-        <v>2653.2178855204838</v>
+        <v>1821.2684114362783</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="8"/>
-        <v>4520.3165215512308</v>
+        <v>4768.1181451337034</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="10">
         <f>H19-H21</f>
-        <v>8.8410953730115427E-2</v>
+        <v>0.11027427092159003</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" ref="I22:L22" si="9">I19-I21</f>
@@ -2146,15 +2146,15 @@
       </c>
       <c r="J22" s="10">
         <f t="shared" si="9"/>
-        <v>-2.4210736804012783E-2</v>
+        <v>-4.5840479353197461E-3</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="9"/>
-        <v>0.20558018638776415</v>
+        <v>0.14111796152458372</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="9"/>
-        <v>0.28036448065194008</v>
+        <v>0.29573392948791799</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2195,7 +2195,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="11">
         <f>(B19/1000)</f>
-        <v>4.8849999999999998</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25:L25" si="10">(C19/1000)</f>
@@ -2203,15 +2203,15 @@
       </c>
       <c r="J25" s="11">
         <f t="shared" si="10"/>
-        <v>14.593</v>
+        <v>14.856999999999999</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="10"/>
-        <v>18.120999999999999</v>
+        <v>17.241</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="10"/>
-        <v>24.196000000000002</v>
+        <v>24.457000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2226,7 +2226,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="15">
         <f>POWER(H25,(1/16))-1</f>
-        <v>0.10421599939488457</v>
+        <v>0.10554604157840997</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" ref="I26:L26" si="11">POWER(I25,(1/16))-1</f>
@@ -2234,15 +2234,15 @@
       </c>
       <c r="J26" s="15">
         <f>POWER(J25,(1/16))-1</f>
-        <v>0.18238533997861595</v>
+        <v>0.18371103206230388</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="11"/>
-        <v>0.19849543735313158</v>
+        <v>0.19477232206444461</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="11"/>
-        <v>0.22034878610982878</v>
+        <v>0.22116739160617116</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2273,15 +2273,15 @@
       <c r="I28" s="17"/>
       <c r="J28" s="15">
         <f>(K22+L22)/(J22+K22+L22)</f>
-        <v>1.0524343896313932</v>
+        <v>1.0106046471157497</v>
       </c>
       <c r="K28" s="15">
         <f>(J22+L22)/(J22+K22+L22)</f>
-        <v>0.55476482682824291</v>
+        <v>0.67354045926708705</v>
       </c>
       <c r="L28" s="15">
         <f>(J22+K22)/(J22+K22+L22)</f>
-        <v>0.39280078354036402</v>
+        <v>0.31585489361716335</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2298,15 +2298,15 @@
       <c r="I29" s="17"/>
       <c r="J29" s="15">
         <f>J28/($J$28+$K$28+$L$28)</f>
-        <v>0.52621719481569662</v>
+        <v>0.50530232355787486</v>
       </c>
       <c r="K29" s="15">
         <f>K28/($J$28+$K$28+$L$28)</f>
-        <v>0.27738241341412145</v>
+        <v>0.33677022963354353</v>
       </c>
       <c r="L29" s="15">
         <f>L28/($J$28+$K$28+$L$28)</f>
-        <v>0.19640039177018201</v>
+        <v>0.15792744680858167</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -2322,15 +2322,15 @@
       </c>
       <c r="J30" s="23">
         <f>$C$30*J29</f>
-        <v>473.59547533412695</v>
+        <v>454.77209120208738</v>
       </c>
       <c r="K30" s="23">
         <f t="shared" ref="K30:L30" si="12">$C$30*K29</f>
-        <v>249.6441720727093</v>
+        <v>303.09320667018915</v>
       </c>
       <c r="L30" s="23">
         <f t="shared" si="12"/>
-        <v>176.76035259316382</v>
+        <v>142.1347021277235</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2339,15 +2339,15 @@
       </c>
       <c r="J32" s="15">
         <f>J29*0.9</f>
-        <v>0.47359547533412699</v>
+        <v>0.45477209120208739</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" ref="K32:L32" si="13">K29*0.9</f>
-        <v>0.24964417207270931</v>
+        <v>0.30309320667018919</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="13"/>
-        <v>0.17676035259316381</v>
+        <v>0.1421347021277235</v>
       </c>
     </row>
   </sheetData>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D36AF2-BF7B-47D3-9605-F764D75CFA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBBCC9A-DD70-457A-86ED-B42E7D4C8353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 2020921" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 20201227" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2029,40 +2029,40 @@
         <v>2020</v>
       </c>
       <c r="B19" s="4">
-        <v>4980</v>
+        <v>5042</v>
       </c>
       <c r="C19" s="4">
-        <v>6351</v>
+        <v>6278</v>
       </c>
       <c r="D19" s="4">
-        <v>14857</v>
+        <v>14291</v>
       </c>
       <c r="E19" s="4">
-        <v>17241</v>
+        <v>17678</v>
       </c>
       <c r="F19" s="4">
-        <v>24457</v>
+        <v>26159</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>0.2158203125</v>
+        <v>0.23095703125</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
-        <v>0.20580975887602052</v>
+        <v>0.19194987659008925</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" ref="J19" si="5">(D19-D18)/D18</f>
-        <v>0.17912698412698413</v>
+        <v>0.13420634920634922</v>
       </c>
       <c r="K19" s="11">
         <f t="shared" si="4"/>
-        <v>0.33589028358902834</v>
+        <v>0.36975050364171702</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="3"/>
-        <v>0.51690132109408915</v>
+        <v>0.62246480183588659</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2071,44 +2071,44 @@
       </c>
       <c r="B21" s="13">
         <f>B18+B18*H26</f>
-        <v>4528.3165863051672</v>
+        <v>4531.8197268312233</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" ref="C21:F21" si="6">C18+C18*I26</f>
-        <v>5912.0888249594082</v>
+        <v>5907.8185798231971</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="6"/>
-        <v>14914.759003985029</v>
+        <v>14878.596251063256</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="6"/>
-        <v>15419.731588563722</v>
+        <v>15443.873346616339</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="6"/>
-        <v>19688.881854866297</v>
+        <v>19771.84399477646</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="11">
         <f>H26</f>
-        <v>0.10554604157840997</v>
+        <v>0.10640130049590413</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" ref="I21:L21" si="7">I26</f>
-        <v>0.12247746819050853</v>
+        <v>0.12166671346557756</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="7"/>
-        <v>0.18371103206230388</v>
+        <v>0.18084097230660756</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="7"/>
-        <v>0.19477232206444461</v>
+        <v>0.19664290613794666</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="7"/>
-        <v>0.22116739160617116</v>
+        <v>0.22631296872644424</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2117,44 +2117,44 @@
       </c>
       <c r="B22" s="14">
         <f>B19-B21</f>
-        <v>451.68341369483278</v>
+        <v>510.18027316877669</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" ref="C22:F22" si="8">C19-C21</f>
-        <v>438.91117504059184</v>
+        <v>370.18142017680293</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="8"/>
-        <v>-57.759003985029267</v>
+        <v>-587.5962510632562</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="8"/>
-        <v>1821.2684114362783</v>
+        <v>2234.1266533836606</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="8"/>
-        <v>4768.1181451337034</v>
+        <v>6387.15600522354</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="10">
         <f>H19-H21</f>
-        <v>0.11027427092159003</v>
+        <v>0.12455573075409587</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" ref="I22:L22" si="9">I19-I21</f>
-        <v>8.3332290685511984E-2</v>
+        <v>7.0283163124511688E-2</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="9"/>
-        <v>-4.5840479353197461E-3</v>
+        <v>-4.6634623100258343E-2</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="9"/>
-        <v>0.14111796152458372</v>
+        <v>0.17310759750377036</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="9"/>
-        <v>0.29573392948791799</v>
+        <v>0.39615183310944235</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2195,23 +2195,23 @@
       <c r="G25" s="4"/>
       <c r="H25" s="11">
         <f>(B19/1000)</f>
-        <v>4.9800000000000004</v>
+        <v>5.0419999999999998</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25:L25" si="10">(C19/1000)</f>
-        <v>6.351</v>
+        <v>6.2779999999999996</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="10"/>
-        <v>14.856999999999999</v>
+        <v>14.291</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="10"/>
-        <v>17.241</v>
+        <v>17.678000000000001</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="10"/>
-        <v>24.457000000000001</v>
+        <v>26.158999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2226,23 +2226,23 @@
       <c r="G26" s="3"/>
       <c r="H26" s="15">
         <f>POWER(H25,(1/16))-1</f>
-        <v>0.10554604157840997</v>
+        <v>0.10640130049590413</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" ref="I26:L26" si="11">POWER(I25,(1/16))-1</f>
-        <v>0.12247746819050853</v>
+        <v>0.12166671346557756</v>
       </c>
       <c r="J26" s="15">
         <f>POWER(J25,(1/16))-1</f>
-        <v>0.18371103206230388</v>
+        <v>0.18084097230660756</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="11"/>
-        <v>0.19477232206444461</v>
+        <v>0.19664290613794666</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="11"/>
-        <v>0.22116739160617116</v>
+        <v>0.22631296872644424</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2273,15 +2273,15 @@
       <c r="I28" s="17"/>
       <c r="J28" s="15">
         <f>(K22+L22)/(J22+K22+L22)</f>
-        <v>1.0106046471157497</v>
+        <v>1.0892315527886656</v>
       </c>
       <c r="K28" s="15">
         <f>(J22+L22)/(J22+K22+L22)</f>
-        <v>0.67354045926708705</v>
+        <v>0.66877271224925627</v>
       </c>
       <c r="L28" s="15">
         <f>(J22+K22)/(J22+K22+L22)</f>
-        <v>0.31585489361716335</v>
+        <v>0.24199573496207816</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2298,15 +2298,15 @@
       <c r="I29" s="17"/>
       <c r="J29" s="15">
         <f>J28/($J$28+$K$28+$L$28)</f>
-        <v>0.50530232355787486</v>
+        <v>0.54461577639433278</v>
       </c>
       <c r="K29" s="15">
         <f>K28/($J$28+$K$28+$L$28)</f>
-        <v>0.33677022963354353</v>
+        <v>0.33438635612462814</v>
       </c>
       <c r="L29" s="15">
         <f>L28/($J$28+$K$28+$L$28)</f>
-        <v>0.15792744680858167</v>
+        <v>0.12099786748103908</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -2322,15 +2322,15 @@
       </c>
       <c r="J30" s="23">
         <f>$C$30*J29</f>
-        <v>454.77209120208738</v>
+        <v>490.15419875489948</v>
       </c>
       <c r="K30" s="23">
         <f t="shared" ref="K30:L30" si="12">$C$30*K29</f>
-        <v>303.09320667018915</v>
+        <v>300.94772051216535</v>
       </c>
       <c r="L30" s="23">
         <f t="shared" si="12"/>
-        <v>142.1347021277235</v>
+        <v>108.89808073293517</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2339,15 +2339,15 @@
       </c>
       <c r="J32" s="15">
         <f>J29*0.9</f>
-        <v>0.45477209120208739</v>
+        <v>0.49015419875489952</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" ref="K32:L32" si="13">K29*0.9</f>
-        <v>0.30309320667018919</v>
+        <v>0.30094772051216534</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="13"/>
-        <v>0.1421347021277235</v>
+        <v>0.10889808073293518</v>
       </c>
     </row>
   </sheetData>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBBCC9A-DD70-457A-86ED-B42E7D4C8353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1628E5DF-F64A-45C3-8DC5-3F1F876F8185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 20201227" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 20210125" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -197,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,11 +205,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -224,9 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -234,38 +246,18 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,18 +270,76 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -592,21 +642,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -631,16 +681,16 @@
       <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -654,7 +704,7 @@
       <c r="C3" s="4">
         <v>1000</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>1000</v>
       </c>
       <c r="E3" s="4">
@@ -665,10 +715,10 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -680,26 +730,26 @@
       <c r="C4" s="3">
         <v>860</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="14">
         <f>D3*(1+J4)</f>
         <v>990.9</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f t="shared" ref="H4:H18" si="0">(B4-B3)/B3</f>
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f t="shared" ref="I4:I18" si="1">(C4-C3)/C3</f>
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="13">
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -711,7 +761,7 @@
       <c r="C5" s="4">
         <v>1726</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <f t="shared" ref="D5:D14" si="2">D4*(1+J5)</f>
         <v>2004.1943399999998</v>
       </c>
@@ -722,15 +772,15 @@
         <f t="shared" si="0"/>
         <v>1.2112676056338028</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f t="shared" si="1"/>
         <v>1.0069767441860464</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>1.0226</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -742,26 +792,26 @@
       <c r="C6" s="3">
         <v>4967</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="14">
         <f t="shared" si="2"/>
         <v>6274.7316396719989</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>1.6153846153846154</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <f t="shared" si="1"/>
         <v>1.8777520278099653</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="13">
         <v>2.1307999999999998</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -773,7 +823,7 @@
       <c r="C7" s="4">
         <v>1939</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <f t="shared" si="2"/>
         <v>2981.1250020081666</v>
       </c>
@@ -784,15 +834,15 @@
         <f t="shared" si="0"/>
         <v>-0.65961034095166726</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f t="shared" si="1"/>
         <v>-0.6096235152003221</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>-0.52490000000000003</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -804,7 +854,7 @@
       <c r="C8" s="3">
         <v>4485</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="14">
         <f t="shared" si="2"/>
         <v>6989.5456797083471</v>
       </c>
@@ -813,19 +863,19 @@
         <v>5909</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>0.96752889378095763</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f t="shared" si="1"/>
         <v>1.3130479628674574</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="13">
         <v>1.3446</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -837,7 +887,7 @@
       <c r="C9" s="4">
         <v>4936</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <f t="shared" si="2"/>
         <v>7748.610340524674</v>
       </c>
@@ -850,15 +900,15 @@
         <f t="shared" si="0"/>
         <v>-0.12503496503496503</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f t="shared" si="1"/>
         <v>0.10055741360089186</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>0.1086</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10">
         <f t="shared" ref="L9:L18" si="3">(F9-F8)/F8</f>
         <v>0.17667964122524962</v>
       </c>
@@ -873,7 +923,7 @@
       <c r="C10" s="3">
         <v>3266</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="14">
         <f t="shared" si="2"/>
         <v>5876.5460822539126</v>
       </c>
@@ -884,19 +934,19 @@
         <v>5626</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>-0.25031969309462915</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f t="shared" si="1"/>
         <v>-0.33833063209076175</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="13">
         <v>-0.24160000000000001</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
         <f t="shared" si="3"/>
         <v>-0.19085286926506545</v>
       </c>
@@ -911,7 +961,7 @@
       <c r="C11" s="4">
         <v>3275</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <f t="shared" si="2"/>
         <v>5841.8744603686146</v>
       </c>
@@ -926,18 +976,18 @@
         <f t="shared" si="0"/>
         <v>7.5479744136460553E-2</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <f t="shared" si="1"/>
         <v>2.7556644213104714E-3</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <f t="shared" ref="K11:K18" si="4">(E11-E10)/E10</f>
         <v>7.1719497078094566E-2</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <f t="shared" si="3"/>
         <v>-1.7419125488801989E-2</v>
       </c>
@@ -952,7 +1002,7 @@
       <c r="C12" s="3">
         <v>3829</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="14">
         <f t="shared" si="2"/>
         <v>7455.9843737684623</v>
       </c>
@@ -963,22 +1013,22 @@
         <v>5581</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>-7.6130055511498804E-2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <f t="shared" si="1"/>
         <v>0.16916030534351145</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="13">
         <v>0.27629999999999999</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f t="shared" si="4"/>
         <v>0.41986120290812956</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <f t="shared" si="3"/>
         <v>9.5875542691751092E-3</v>
       </c>
@@ -993,7 +1043,7 @@
       <c r="C13" s="4">
         <v>5322</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <f t="shared" si="2"/>
         <v>11733.482608999429</v>
       </c>
@@ -1008,18 +1058,18 @@
         <f t="shared" si="0"/>
         <v>0.51630901287553643</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f t="shared" si="1"/>
         <v>0.38991903891355445</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>0.57369999999999999</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <f t="shared" si="4"/>
         <v>0.1661817758640754</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <f t="shared" si="3"/>
         <v>0.14836050886937824</v>
       </c>
@@ -1034,7 +1084,7 @@
       <c r="C14" s="3">
         <v>7617</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="14">
         <f t="shared" si="2"/>
         <v>17613.130744369046</v>
       </c>
@@ -1045,22 +1095,22 @@
         <v>8107</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>5.6043022926691194E-2</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f t="shared" si="1"/>
         <v>0.43122886133032695</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="13">
         <v>0.50109999999999999</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f t="shared" si="4"/>
         <v>0.58028140904101388</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <f t="shared" si="3"/>
         <v>0.26493992822593226</v>
       </c>
@@ -1075,7 +1125,7 @@
       <c r="C15" s="4">
         <v>6263</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>13777</v>
       </c>
       <c r="E15" s="4">
@@ -1089,18 +1139,18 @@
         <f t="shared" si="0"/>
         <v>-0.11283838113106406</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <f t="shared" si="1"/>
         <v>-0.17776027307338849</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>-0.13389999999999999</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <f t="shared" si="4"/>
         <v>-0.15610002525890376</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <f t="shared" si="3"/>
         <v>6.4142099420254105E-3</v>
       </c>
@@ -1115,7 +1165,7 @@
       <c r="C16" s="3">
         <v>6250</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="14">
         <v>14285</v>
       </c>
       <c r="E16" s="3">
@@ -1125,23 +1175,23 @@
         <v>12726</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>0.2175226586102719</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <f t="shared" si="1"/>
         <v>-2.0756825802331152E-3</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="13">
         <f>(D16-D15)/D15</f>
         <v>3.6873049285040281E-2</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <f t="shared" si="4"/>
         <v>1.5639030230469919E-2</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f t="shared" si="3"/>
         <v>0.55974996935899002</v>
       </c>
@@ -1156,7 +1206,7 @@
       <c r="C17" s="4">
         <v>4168</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>10276</v>
       </c>
       <c r="E17" s="4">
@@ -1170,19 +1220,19 @@
         <f t="shared" si="0"/>
         <v>-0.25310173697270472</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <f t="shared" si="1"/>
         <v>-0.33312000000000003</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <f>(D17-D16)/D16</f>
         <v>-0.28064403220161011</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <f t="shared" si="4"/>
         <v>-0.26810579827598907</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <f t="shared" si="3"/>
         <v>-0.23086594373723088</v>
       </c>
@@ -1197,7 +1247,7 @@
       <c r="C18" s="3">
         <v>4942</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="14">
         <v>12447</v>
       </c>
       <c r="E18" s="3">
@@ -1207,23 +1257,23 @@
         <v>14858</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>0.21196013289036544</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <f t="shared" si="1"/>
         <v>0.18570057581573896</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="13">
         <f>(D18-D17)/D17</f>
         <v>0.21126897625535226</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <f t="shared" si="4"/>
         <v>0.17857861888463861</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <f t="shared" si="3"/>
         <v>0.5179812014711892</v>
       </c>
@@ -1233,67 +1283,67 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="N19"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="N20"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="N21"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="N22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1301,51 +1351,51 @@
         <f>(B18/1000)</f>
         <v>3.6480000000000001</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <f>(C18/1000)</f>
         <v>4.9420000000000002</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="10">
         <f>(D18/1000)</f>
         <v>12.446999999999999</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <f>(E18/1000)</f>
         <v>11.708</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <f>(F18/1000)</f>
         <v>14.858000000000001</v>
       </c>
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="15">
+      <c r="H24" s="12">
         <f>POWER(H23,(1/15))-1</f>
         <v>9.0109995894335437E-2</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="12">
         <f>POWER(I23,(1/15))-1</f>
         <v>0.11239795740567771</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="12">
         <f>POWER(J23,(1/15))-1</f>
         <v>0.18305330363776462</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="12">
         <f>POWER(K23,(1/15))-1</f>
         <v>0.17823570921056242</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="12">
         <f>POWER(L23,(1/15))-1</f>
         <v>0.19710071519578198</v>
       </c>
@@ -1365,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F952F159-CCE4-47E5-A079-7D80BB1CE1C7}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1387,976 +1437,1059 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="24">
         <v>2004</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="24">
         <v>1000</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="24">
         <v>1000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="24">
         <v>1000</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="24">
         <v>1000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="24">
         <v>1000</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="19">
         <v>2005</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="19">
         <v>923</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="19">
         <v>860</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="26">
         <f>D3*(1+J4)</f>
         <v>990.9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="10">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="23">
         <f t="shared" ref="H4:H19" si="0">(B4-B3)/B3</f>
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="23">
         <f t="shared" ref="I4:I19" si="1">(C4-C3)/C3</f>
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="27">
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="24">
         <v>2006</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="24">
         <v>2041</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="24">
         <v>1726</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="28">
         <f t="shared" ref="D5:D14" si="2">D4*(1+J5)</f>
         <v>2004.1943399999998</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="11">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25">
         <f t="shared" si="0"/>
         <v>1.2112676056338028</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="25">
         <f t="shared" si="1"/>
         <v>1.0069767441860464</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="25">
         <v>1.0226</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="19">
         <v>2007</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="19">
         <v>5338</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="19">
         <v>4967</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="26">
         <f t="shared" si="2"/>
         <v>6274.7316396719989</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="10">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="23">
         <f t="shared" si="0"/>
         <v>1.6153846153846154</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="23">
         <f t="shared" si="1"/>
         <v>1.8777520278099653</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="27">
         <v>2.1307999999999998</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="24">
         <v>2008</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="24">
         <v>1817</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="24">
         <v>1939</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="28">
         <f t="shared" si="2"/>
         <v>2981.1250020081666</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="11">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25">
         <f t="shared" si="0"/>
         <v>-0.65961034095166726</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>-0.6096235152003221</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="25">
         <v>-0.52490000000000003</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="19">
         <v>2009</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="19">
         <v>3575</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="19">
         <v>4485</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="26">
         <f t="shared" si="2"/>
         <v>6989.5456797083471</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19">
         <v>5909</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="10">
+      <c r="G8" s="19"/>
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>0.96752889378095763</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="23">
         <f t="shared" si="1"/>
         <v>1.3130479628674574</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="27">
         <v>1.3446</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="24">
         <v>2010</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="24">
         <v>3128</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="24">
         <v>4936</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="28">
         <f t="shared" si="2"/>
         <v>7748.610340524674</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
         <v>6953</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="11">
+      <c r="G9" s="24"/>
+      <c r="H9" s="25">
         <f t="shared" si="0"/>
         <v>-0.12503496503496503</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="25">
         <f t="shared" si="1"/>
         <v>0.10055741360089186</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="25">
         <v>0.1086</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25">
         <f t="shared" ref="L9:L19" si="3">(F9-F8)/F8</f>
         <v>0.17667964122524962</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="19">
         <v>2011</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="19">
         <v>2345</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="19">
         <v>3266</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="26">
         <f t="shared" si="2"/>
         <v>5876.5460822539126</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="19">
         <v>5647</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="19">
         <v>5626</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="10">
+      <c r="G10" s="19"/>
+      <c r="H10" s="23">
         <f t="shared" si="0"/>
         <v>-0.25031969309462915</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="23">
         <f t="shared" si="1"/>
         <v>-0.33833063209076175</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="27">
         <v>-0.24160000000000001</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10">
+      <c r="K10" s="23"/>
+      <c r="L10" s="23">
         <f t="shared" si="3"/>
         <v>-0.19085286926506545</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="24">
         <v>2012</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="24">
         <v>2522</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="24">
         <v>3275</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="28">
         <f t="shared" si="2"/>
         <v>5841.8744603686146</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="24">
         <v>6052</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="24">
         <v>5528</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="11">
+      <c r="G11" s="24"/>
+      <c r="H11" s="25">
         <f t="shared" si="0"/>
         <v>7.5479744136460553E-2</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="25">
         <f t="shared" si="1"/>
         <v>2.7556644213104714E-3</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="25">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="25">
         <f t="shared" ref="K11:K19" si="4">(E11-E10)/E10</f>
         <v>7.1719497078094566E-2</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="25">
         <f t="shared" si="3"/>
         <v>-1.7419125488801989E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="19">
         <v>2013</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="19">
         <v>2330</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="19">
         <v>3829</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="26">
         <f t="shared" si="2"/>
         <v>7455.9843737684623</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="19">
         <v>8593</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="19">
         <v>5581</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="10">
+      <c r="G12" s="19"/>
+      <c r="H12" s="23">
         <f t="shared" si="0"/>
         <v>-7.6130055511498804E-2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="23">
         <f t="shared" si="1"/>
         <v>0.16916030534351145</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="27">
         <v>0.27629999999999999</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="23">
         <f t="shared" si="4"/>
         <v>0.41986120290812956</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="23">
         <f t="shared" si="3"/>
         <v>9.5875542691751092E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="24">
         <v>2014</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="24">
         <v>3533</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="24">
         <v>5322</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="28">
         <f t="shared" si="2"/>
         <v>11733.482608999429</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="24">
         <v>10021</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="24">
         <v>6409</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="11">
+      <c r="G13" s="24"/>
+      <c r="H13" s="25">
         <f t="shared" si="0"/>
         <v>0.51630901287553643</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="25">
         <f t="shared" si="1"/>
         <v>0.38991903891355445</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="25">
         <v>0.57369999999999999</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="25">
         <f t="shared" si="4"/>
         <v>0.1661817758640754</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="25">
         <f t="shared" si="3"/>
         <v>0.14836050886937824</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="19">
         <v>2015</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="19">
         <v>3731</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="19">
         <v>7617</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="26">
         <f t="shared" si="2"/>
         <v>17613.130744369046</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="19">
         <v>15836</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="19">
         <v>8107</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="10">
+      <c r="G14" s="19"/>
+      <c r="H14" s="23">
         <f t="shared" si="0"/>
         <v>5.6043022926691194E-2</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="23">
         <f t="shared" si="1"/>
         <v>0.43122886133032695</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="27">
         <v>0.50109999999999999</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="23">
         <f t="shared" si="4"/>
         <v>0.58028140904101388</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="23">
         <f t="shared" si="3"/>
         <v>0.26493992822593226</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="24">
         <v>2016</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="24">
         <v>3310</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="24">
         <v>6263</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="24">
         <v>13777</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="24">
         <v>13364</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="24">
         <v>8159</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="11">
+      <c r="G15" s="24"/>
+      <c r="H15" s="25">
         <f t="shared" si="0"/>
         <v>-0.11283838113106406</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="25">
         <f t="shared" si="1"/>
         <v>-0.17776027307338849</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="25">
         <v>-0.13389999999999999</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="25">
         <f t="shared" si="4"/>
         <v>-0.15610002525890376</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="25">
         <f t="shared" si="3"/>
         <v>6.4142099420254105E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="19">
         <v>2017</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="19">
         <v>4030</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="19">
         <v>6250</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="19">
         <v>14285</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="19">
         <v>13573</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="19">
         <v>12726</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="10">
+      <c r="G16" s="19"/>
+      <c r="H16" s="23">
         <f t="shared" si="0"/>
         <v>0.2175226586102719</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="23">
         <f t="shared" si="1"/>
         <v>-2.0756825802331152E-3</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="23">
         <f>(D16-D15)/D15</f>
         <v>3.6873049285040281E-2</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="23">
         <f t="shared" si="4"/>
         <v>1.5639030230469919E-2</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="23">
         <f t="shared" si="3"/>
         <v>0.55974996935899002</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="24">
         <v>2018</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="24">
         <v>3010</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="24">
         <v>4168</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="24">
         <v>10276</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="24">
         <v>9934</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="24">
         <v>9788</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="11">
+      <c r="G17" s="24"/>
+      <c r="H17" s="25">
         <f t="shared" si="0"/>
         <v>-0.25310173697270472</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="25">
         <f t="shared" si="1"/>
         <v>-0.33312000000000003</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="25">
         <f>(D17-D16)/D16</f>
         <v>-0.28064403220161011</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="25">
         <f t="shared" si="4"/>
         <v>-0.26810579827598907</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="25">
         <f t="shared" si="3"/>
         <v>-0.23086594373723088</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="19">
         <v>2019</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="19">
         <v>4096</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="19">
         <v>5267</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="19">
         <v>12600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="19">
         <v>12906</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="19">
         <v>16123</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="10">
+      <c r="G18" s="19"/>
+      <c r="H18" s="23">
         <f t="shared" si="0"/>
         <v>0.36079734219269105</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="23">
         <f t="shared" si="1"/>
         <v>0.2636756238003839</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="23">
         <f>(D18-D17)/D17</f>
         <v>0.22615803814713897</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="23">
         <f t="shared" si="4"/>
         <v>0.29917455204348703</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="23">
         <f t="shared" si="3"/>
         <v>0.64722108704536163</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="24">
         <v>2020</v>
       </c>
-      <c r="B19" s="4">
-        <v>5042</v>
-      </c>
-      <c r="C19" s="4">
-        <v>6278</v>
-      </c>
-      <c r="D19" s="4">
-        <v>14291</v>
-      </c>
-      <c r="E19" s="4">
-        <v>17678</v>
-      </c>
-      <c r="F19" s="4">
-        <v>26159</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="11">
-        <f t="shared" si="0"/>
-        <v>0.23095703125</v>
-      </c>
-      <c r="I19" s="11">
-        <f t="shared" si="1"/>
-        <v>0.19194987659008925</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="B19" s="24">
+        <v>5267</v>
+      </c>
+      <c r="C19" s="24">
+        <v>6367</v>
+      </c>
+      <c r="D19" s="24">
+        <v>14366</v>
+      </c>
+      <c r="E19" s="24">
+        <v>17704</v>
+      </c>
+      <c r="F19" s="24">
+        <v>27435</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25">
+        <f t="shared" si="0"/>
+        <v>0.285888671875</v>
+      </c>
+      <c r="I19" s="25">
+        <f t="shared" si="1"/>
+        <v>0.20884754129485475</v>
+      </c>
+      <c r="J19" s="25">
         <f t="shared" ref="J19" si="5">(D19-D18)/D18</f>
-        <v>0.13420634920634922</v>
-      </c>
-      <c r="K19" s="11">
+        <v>0.14015873015873015</v>
+      </c>
+      <c r="K19" s="25">
         <f t="shared" si="4"/>
-        <v>0.36975050364171702</v>
-      </c>
-      <c r="L19" s="11">
+        <v>0.37176507050984037</v>
+      </c>
+      <c r="L19" s="25">
         <f t="shared" si="3"/>
-        <v>0.62246480183588659</v>
+        <v>0.70160640079389691</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="29">
+        <v>5569</v>
+      </c>
+      <c r="C20" s="29">
+        <v>6637</v>
+      </c>
+      <c r="D20" s="29">
+        <v>14416</v>
+      </c>
+      <c r="E20" s="29">
+        <v>19400</v>
+      </c>
+      <c r="F20" s="29">
+        <v>27925</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30">
+        <f t="shared" ref="H20" si="6">(B20-B19)/B19</f>
+        <v>5.7338143155496485E-2</v>
+      </c>
+      <c r="I20" s="30">
+        <f t="shared" ref="I20" si="7">(C20-C19)/C19</f>
+        <v>4.2406156745720118E-2</v>
+      </c>
+      <c r="J20" s="30">
+        <f t="shared" ref="J20" si="8">(D20-D19)/D19</f>
+        <v>3.4804399276068495E-3</v>
+      </c>
+      <c r="K20" s="30">
+        <f t="shared" ref="K20" si="9">(E20-E19)/E19</f>
+        <v>9.5797559873474922E-2</v>
+      </c>
+      <c r="L20" s="30">
+        <f t="shared" ref="L20" si="10">(F20-F19)/F19</f>
+        <v>1.7860397302715509E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13">
-        <f>B18+B18*H26</f>
-        <v>4531.8197268312233</v>
-      </c>
-      <c r="C21" s="13">
-        <f t="shared" ref="C21:F21" si="6">C18+C18*I26</f>
-        <v>5907.8185798231971</v>
-      </c>
-      <c r="D21" s="13">
-        <f t="shared" si="6"/>
-        <v>14878.596251063256</v>
-      </c>
-      <c r="E21" s="13">
-        <f t="shared" si="6"/>
-        <v>15443.873346616339</v>
-      </c>
-      <c r="F21" s="13">
-        <f t="shared" si="6"/>
-        <v>19771.84399477646</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="11">
-        <f>H26</f>
-        <v>0.10640130049590413</v>
-      </c>
-      <c r="I21" s="11">
-        <f t="shared" ref="I21:L21" si="7">I26</f>
-        <v>0.12166671346557756</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" si="7"/>
-        <v>0.18084097230660756</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" si="7"/>
-        <v>0.19664290613794666</v>
-      </c>
-      <c r="L21" s="11">
-        <f t="shared" si="7"/>
-        <v>0.22631296872644424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="28">
+        <f>B19+B19*H27</f>
+        <v>5826.8329369553694</v>
+      </c>
+      <c r="C22" s="28">
+        <f t="shared" ref="C22:F22" si="11">C19+C19*I27</f>
+        <v>7116.8224834546072</v>
+      </c>
+      <c r="D22" s="28">
+        <f t="shared" si="11"/>
+        <v>16807.503165566784</v>
+      </c>
+      <c r="E22" s="28">
+        <f t="shared" si="11"/>
+        <v>21077.759451919253</v>
+      </c>
+      <c r="F22" s="28">
+        <f t="shared" si="11"/>
+        <v>33370.551721891767</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25">
+        <f>H27</f>
+        <v>0.10629066583546032</v>
+      </c>
+      <c r="I22" s="25">
+        <f t="shared" ref="I22:L22" si="12">I27</f>
+        <v>0.11776699912904154</v>
+      </c>
+      <c r="J22" s="25">
+        <f t="shared" si="12"/>
+        <v>0.1699501020163432</v>
+      </c>
+      <c r="K22" s="25">
+        <f t="shared" si="12"/>
+        <v>0.19056481314500973</v>
+      </c>
+      <c r="L22" s="25">
+        <f t="shared" si="12"/>
+        <v>0.21634961625266147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="14">
-        <f>B19-B21</f>
-        <v>510.18027316877669</v>
-      </c>
-      <c r="C22" s="14">
-        <f t="shared" ref="C22:F22" si="8">C19-C21</f>
-        <v>370.18142017680293</v>
-      </c>
-      <c r="D22" s="14">
-        <f t="shared" si="8"/>
-        <v>-587.5962510632562</v>
-      </c>
-      <c r="E22" s="14">
-        <f t="shared" si="8"/>
-        <v>2234.1266533836606</v>
-      </c>
-      <c r="F22" s="14">
-        <f t="shared" si="8"/>
-        <v>6387.15600522354</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="10">
-        <f>H19-H21</f>
-        <v>0.12455573075409587</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" ref="I22:L22" si="9">I19-I21</f>
-        <v>7.0283163124511688E-2</v>
-      </c>
-      <c r="J22" s="10">
-        <f t="shared" si="9"/>
-        <v>-4.6634623100258343E-2</v>
-      </c>
-      <c r="K22" s="10">
-        <f t="shared" si="9"/>
-        <v>0.17310759750377036</v>
-      </c>
-      <c r="L22" s="10">
-        <f t="shared" si="9"/>
-        <v>0.39615183310944235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="B23" s="32">
+        <f>B20-B22</f>
+        <v>-257.83293695536941</v>
+      </c>
+      <c r="C23" s="32">
+        <f t="shared" ref="C23:F23" si="13">C20-C22</f>
+        <v>-479.82248345460721</v>
+      </c>
+      <c r="D23" s="32">
+        <f t="shared" si="13"/>
+        <v>-2391.5031655667844</v>
+      </c>
+      <c r="E23" s="32">
+        <f t="shared" si="13"/>
+        <v>-1677.7594519192535</v>
+      </c>
+      <c r="F23" s="32">
+        <f t="shared" si="13"/>
+        <v>-5445.5517218917666</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="23">
+        <f>H20-H22</f>
+        <v>-4.8952522679963834E-2</v>
+      </c>
+      <c r="I23" s="23">
+        <f t="shared" ref="I23:L23" si="14">I20-I22</f>
+        <v>-7.5360842383321414E-2</v>
+      </c>
+      <c r="J23" s="23">
+        <f t="shared" si="14"/>
+        <v>-0.16646966208873634</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="14"/>
+        <v>-9.4767253271534804E-2</v>
+      </c>
+      <c r="L23" s="23">
+        <f t="shared" si="14"/>
+        <v>-0.19848921894994595</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="11">
-        <f>(B19/1000)</f>
-        <v>5.0419999999999998</v>
-      </c>
-      <c r="I25" s="11">
-        <f t="shared" ref="I25:L25" si="10">(C19/1000)</f>
-        <v>6.2779999999999996</v>
-      </c>
-      <c r="J25" s="11">
-        <f t="shared" si="10"/>
-        <v>14.291</v>
-      </c>
-      <c r="K25" s="11">
-        <f t="shared" si="10"/>
-        <v>17.678000000000001</v>
-      </c>
-      <c r="L25" s="11">
-        <f t="shared" si="10"/>
-        <v>26.158999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25">
+        <f>(B20/1000)</f>
+        <v>5.569</v>
+      </c>
+      <c r="I26" s="25">
+        <f t="shared" ref="I26:L26" si="15">(C20/1000)</f>
+        <v>6.6369999999999996</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="15"/>
+        <v>14.416</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="15"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" si="15"/>
+        <v>27.925000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="15">
-        <f>POWER(H25,(1/16))-1</f>
-        <v>0.10640130049590413</v>
-      </c>
-      <c r="I26" s="15">
-        <f t="shared" ref="I26:L26" si="11">POWER(I25,(1/16))-1</f>
-        <v>0.12166671346557756</v>
-      </c>
-      <c r="J26" s="15">
-        <f>POWER(J25,(1/16))-1</f>
-        <v>0.18084097230660756</v>
-      </c>
-      <c r="K26" s="15">
-        <f t="shared" si="11"/>
-        <v>0.19664290613794666</v>
-      </c>
-      <c r="L26" s="15">
-        <f t="shared" si="11"/>
-        <v>0.22631296872644424</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="35">
+        <f>POWER(H26,(1/17))-1</f>
+        <v>0.10629066583546032</v>
+      </c>
+      <c r="I27" s="35">
+        <f t="shared" ref="I27:L27" si="16">POWER(I26,(1/17))-1</f>
+        <v>0.11776699912904154</v>
+      </c>
+      <c r="J27" s="35">
+        <f t="shared" si="16"/>
+        <v>0.1699501020163432</v>
+      </c>
+      <c r="K27" s="35">
+        <f t="shared" si="16"/>
+        <v>0.19056481314500973</v>
+      </c>
+      <c r="L27" s="35">
+        <f t="shared" si="16"/>
+        <v>0.21634961625266147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+    </row>
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="15">
-        <f>(K22+L22)/(J22+K22+L22)</f>
-        <v>1.0892315527886656</v>
-      </c>
-      <c r="K28" s="15">
-        <f>(J22+L22)/(J22+K22+L22)</f>
-        <v>0.66877271224925627</v>
-      </c>
-      <c r="L28" s="15">
-        <f>(J22+K22)/(J22+K22+L22)</f>
-        <v>0.24199573496207816</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="35">
+        <f>(K23+L23)/(J23+K23+L23)</f>
+        <v>0.63789384665174409</v>
+      </c>
+      <c r="K29" s="35">
+        <f>(J23+L23)/(J23+K23+L23)</f>
+        <v>0.79386150536400191</v>
+      </c>
+      <c r="L29" s="35">
+        <f>(J23+K23)/(J23+K23+L23)</f>
+        <v>0.56824464798425389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="15">
-        <f>J28/($J$28+$K$28+$L$28)</f>
-        <v>0.54461577639433278</v>
-      </c>
-      <c r="K29" s="15">
-        <f>K28/($J$28+$K$28+$L$28)</f>
-        <v>0.33438635612462814</v>
-      </c>
-      <c r="L29" s="15">
-        <f>L28/($J$28+$K$28+$L$28)</f>
-        <v>0.12099786748103908</v>
-      </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="35">
+        <f>J29/($J$29+$K$29+$L$29)</f>
+        <v>0.31894692332587204</v>
+      </c>
+      <c r="K30" s="35">
+        <f>K29/($J$29+$K$29+$L$29)</f>
+        <v>0.39693075268200095</v>
+      </c>
+      <c r="L30" s="35">
+        <f>L29/($J$29+$K$29+$L$29)</f>
+        <v>0.28412232399212695</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="22">
+      <c r="B31" s="42"/>
+      <c r="C31" s="43">
         <v>900</v>
       </c>
-      <c r="J30" s="23">
-        <f>$C$30*J29</f>
-        <v>490.15419875489948</v>
-      </c>
-      <c r="K30" s="23">
-        <f t="shared" ref="K30:L30" si="12">$C$30*K29</f>
-        <v>300.94772051216535</v>
-      </c>
-      <c r="L30" s="23">
-        <f t="shared" si="12"/>
-        <v>108.89808073293517</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="44">
+        <f>$C$31*J30</f>
+        <v>287.05223099328487</v>
+      </c>
+      <c r="K31" s="44">
+        <f t="shared" ref="K31:L31" si="17">$C$31*K30</f>
+        <v>357.23767741380084</v>
+      </c>
+      <c r="L31" s="44">
+        <f t="shared" si="17"/>
+        <v>255.71009159291424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+    </row>
+    <row r="33" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="15">
-        <f>J29*0.9</f>
-        <v>0.49015419875489952</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" ref="K32:L32" si="13">K29*0.9</f>
-        <v>0.30094772051216534</v>
-      </c>
-      <c r="L32" s="15">
-        <f t="shared" si="13"/>
-        <v>0.10889808073293518</v>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="35">
+        <f>J30*0.9</f>
+        <v>0.28705223099328486</v>
+      </c>
+      <c r="K33" s="35">
+        <f t="shared" ref="K33:L33" si="18">K30*0.9</f>
+        <v>0.35723767741380086</v>
+      </c>
+      <c r="L33" s="35">
+        <f t="shared" si="18"/>
+        <v>0.25571009159291425</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1628E5DF-F64A-45C3-8DC5-3F1F876F8185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE6424-CD3E-4B51-9A4C-3E08B27592F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,26 +258,8 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -308,38 +290,56 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -642,21 +642,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1370,10 +1370,10 @@
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1437,1050 +1437,1050 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="20" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+      <c r="A3" s="18">
         <v>2004</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="18">
         <v>1000</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="18">
         <v>1000</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="18">
         <v>1000</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="18">
         <v>1000</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="18">
         <v>1000</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>2005</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>923</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>860</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="20">
         <f>D3*(1+J4)</f>
         <v>990.9</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="23">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17">
         <f t="shared" ref="H4:H19" si="0">(B4-B3)/B3</f>
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="17">
         <f t="shared" ref="I4:I19" si="1">(C4-C3)/C3</f>
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="21">
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>2006</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="18">
         <v>2041</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="18">
         <v>1726</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="22">
         <f t="shared" ref="D5:D14" si="2">D4*(1+J5)</f>
         <v>2004.1943399999998</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19">
         <f t="shared" si="0"/>
         <v>1.2112676056338028</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="19">
         <f t="shared" si="1"/>
         <v>1.0069767441860464</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="19">
         <v>1.0226</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>2007</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>5338</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>4967</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="20">
         <f t="shared" si="2"/>
         <v>6274.7316396719989</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="23">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17">
         <f t="shared" si="0"/>
         <v>1.6153846153846154</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="17">
         <f t="shared" si="1"/>
         <v>1.8777520278099653</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="21">
         <v>2.1307999999999998</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>2008</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="18">
         <v>1817</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="18">
         <v>1939</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="22">
         <f t="shared" si="2"/>
         <v>2981.1250020081666</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19">
         <f t="shared" si="0"/>
         <v>-0.65961034095166726</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>-0.6096235152003221</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="19">
         <v>-0.52490000000000003</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>2009</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>3575</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>4485</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="20">
         <f t="shared" si="2"/>
         <v>6989.5456797083471</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
         <v>5909</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="23">
+      <c r="G8" s="15"/>
+      <c r="H8" s="17">
         <f t="shared" si="0"/>
         <v>0.96752889378095763</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="17">
         <f t="shared" si="1"/>
         <v>1.3130479628674574</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="21">
         <v>1.3446</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+      <c r="A9" s="18">
         <v>2010</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="18">
         <v>3128</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="18">
         <v>4936</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="22">
         <f t="shared" si="2"/>
         <v>7748.610340524674</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
         <v>6953</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25">
+      <c r="G9" s="18"/>
+      <c r="H9" s="19">
         <f t="shared" si="0"/>
         <v>-0.12503496503496503</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="19">
         <f t="shared" si="1"/>
         <v>0.10055741360089186</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="19">
         <v>0.1086</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
         <f t="shared" ref="L9:L19" si="3">(F9-F8)/F8</f>
         <v>0.17667964122524962</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>2011</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>2345</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <v>3266</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="20">
         <f t="shared" si="2"/>
         <v>5876.5460822539126</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>5647</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <v>5626</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="23">
+      <c r="G10" s="15"/>
+      <c r="H10" s="17">
         <f t="shared" si="0"/>
         <v>-0.25031969309462915</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="17">
         <f t="shared" si="1"/>
         <v>-0.33833063209076175</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="21">
         <v>-0.24160000000000001</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23">
+      <c r="K10" s="17"/>
+      <c r="L10" s="17">
         <f t="shared" si="3"/>
         <v>-0.19085286926506545</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
+      <c r="A11" s="18">
         <v>2012</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="18">
         <v>2522</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="18">
         <v>3275</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="22">
         <f t="shared" si="2"/>
         <v>5841.8744603686146</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="18">
         <v>6052</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="18">
         <v>5528</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25">
+      <c r="G11" s="18"/>
+      <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>7.5479744136460553E-2</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>2.7556644213104714E-3</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="19">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="19">
         <f t="shared" ref="K11:K19" si="4">(E11-E10)/E10</f>
         <v>7.1719497078094566E-2</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="19">
         <f t="shared" si="3"/>
         <v>-1.7419125488801989E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>2013</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>2330</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>3829</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="20">
         <f t="shared" si="2"/>
         <v>7455.9843737684623</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>8593</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <v>5581</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="23">
+      <c r="G12" s="15"/>
+      <c r="H12" s="17">
         <f t="shared" si="0"/>
         <v>-7.6130055511498804E-2</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="17">
         <f t="shared" si="1"/>
         <v>0.16916030534351145</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="21">
         <v>0.27629999999999999</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="17">
         <f t="shared" si="4"/>
         <v>0.41986120290812956</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="17">
         <f t="shared" si="3"/>
         <v>9.5875542691751092E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="A13" s="18">
         <v>2014</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="18">
         <v>3533</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="18">
         <v>5322</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="22">
         <f t="shared" si="2"/>
         <v>11733.482608999429</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="18">
         <v>10021</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="18">
         <v>6409</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25">
+      <c r="G13" s="18"/>
+      <c r="H13" s="19">
         <f t="shared" si="0"/>
         <v>0.51630901287553643</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="19">
         <f t="shared" si="1"/>
         <v>0.38991903891355445</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="19">
         <v>0.57369999999999999</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="19">
         <f t="shared" si="4"/>
         <v>0.1661817758640754</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="19">
         <f t="shared" si="3"/>
         <v>0.14836050886937824</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>2015</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="15">
         <v>3731</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="15">
         <v>7617</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="20">
         <f t="shared" si="2"/>
         <v>17613.130744369046</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="15">
         <v>15836</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="15">
         <v>8107</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="23">
+      <c r="G14" s="15"/>
+      <c r="H14" s="17">
         <f t="shared" si="0"/>
         <v>5.6043022926691194E-2</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="17">
         <f t="shared" si="1"/>
         <v>0.43122886133032695</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="21">
         <v>0.50109999999999999</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="17">
         <f t="shared" si="4"/>
         <v>0.58028140904101388</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="17">
         <f t="shared" si="3"/>
         <v>0.26493992822593226</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
+      <c r="A15" s="18">
         <v>2016</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="18">
         <v>3310</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="18">
         <v>6263</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="18">
         <v>13777</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="18">
         <v>13364</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="18">
         <v>8159</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25">
+      <c r="G15" s="18"/>
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>-0.11283838113106406</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="19">
         <f t="shared" si="1"/>
         <v>-0.17776027307338849</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="19">
         <v>-0.13389999999999999</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="19">
         <f t="shared" si="4"/>
         <v>-0.15610002525890376</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="19">
         <f t="shared" si="3"/>
         <v>6.4142099420254105E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>2017</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>4030</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="15">
         <v>6250</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="15">
         <v>14285</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="15">
         <v>13573</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="15">
         <v>12726</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="23">
+      <c r="G16" s="15"/>
+      <c r="H16" s="17">
         <f t="shared" si="0"/>
         <v>0.2175226586102719</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="17">
         <f t="shared" si="1"/>
         <v>-2.0756825802331152E-3</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="17">
         <f>(D16-D15)/D15</f>
         <v>3.6873049285040281E-2</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="17">
         <f t="shared" si="4"/>
         <v>1.5639030230469919E-2</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="17">
         <f t="shared" si="3"/>
         <v>0.55974996935899002</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="18">
         <v>2018</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="18">
         <v>3010</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="18">
         <v>4168</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="18">
         <v>10276</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="18">
         <v>9934</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="18">
         <v>9788</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25">
+      <c r="G17" s="18"/>
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>-0.25310173697270472</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="19">
         <f t="shared" si="1"/>
         <v>-0.33312000000000003</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="19">
         <f>(D17-D16)/D16</f>
         <v>-0.28064403220161011</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="19">
         <f t="shared" si="4"/>
         <v>-0.26810579827598907</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="19">
         <f t="shared" si="3"/>
         <v>-0.23086594373723088</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>2019</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="15">
         <v>4096</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="15">
         <v>5267</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="15">
         <v>12600</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="15">
         <v>12906</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="15">
         <v>16123</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="23">
+      <c r="G18" s="15"/>
+      <c r="H18" s="17">
         <f t="shared" si="0"/>
         <v>0.36079734219269105</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="17">
         <f t="shared" si="1"/>
         <v>0.2636756238003839</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="17">
         <f>(D18-D17)/D17</f>
         <v>0.22615803814713897</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="17">
         <f t="shared" si="4"/>
         <v>0.29917455204348703</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="17">
         <f t="shared" si="3"/>
         <v>0.64722108704536163</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
+      <c r="A19" s="18">
         <v>2020</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="18">
         <v>5267</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="18">
         <v>6367</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="18">
         <v>14366</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="18">
         <v>17704</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="18">
         <v>27435</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25">
+      <c r="G19" s="18"/>
+      <c r="H19" s="19">
         <f t="shared" si="0"/>
         <v>0.285888671875</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="19">
         <f t="shared" si="1"/>
         <v>0.20884754129485475</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="19">
         <f t="shared" ref="J19" si="5">(D19-D18)/D18</f>
         <v>0.14015873015873015</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="19">
         <f t="shared" si="4"/>
         <v>0.37176507050984037</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="19">
         <f t="shared" si="3"/>
         <v>0.70160640079389691</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="23">
         <v>2021</v>
       </c>
-      <c r="B20" s="29">
-        <v>5569</v>
-      </c>
-      <c r="C20" s="29">
-        <v>6637</v>
-      </c>
-      <c r="D20" s="29">
-        <v>14416</v>
-      </c>
-      <c r="E20" s="29">
-        <v>19400</v>
-      </c>
-      <c r="F20" s="29">
-        <v>27925</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30">
+      <c r="B20" s="23">
+        <v>5044</v>
+      </c>
+      <c r="C20" s="23">
+        <v>6512</v>
+      </c>
+      <c r="D20" s="23">
+        <v>15643</v>
+      </c>
+      <c r="E20" s="23">
+        <v>18599</v>
+      </c>
+      <c r="F20" s="23">
+        <v>26447</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24">
         <f t="shared" ref="H20" si="6">(B20-B19)/B19</f>
-        <v>5.7338143155496485E-2</v>
-      </c>
-      <c r="I20" s="30">
+        <v>-4.2339092462502372E-2</v>
+      </c>
+      <c r="I20" s="24">
         <f t="shared" ref="I20" si="7">(C20-C19)/C19</f>
-        <v>4.2406156745720118E-2</v>
-      </c>
-      <c r="J20" s="30">
+        <v>2.2773676770849693E-2</v>
+      </c>
+      <c r="J20" s="24">
         <f t="shared" ref="J20" si="8">(D20-D19)/D19</f>
-        <v>3.4804399276068495E-3</v>
-      </c>
-      <c r="K20" s="30">
+        <v>8.8890435751078939E-2</v>
+      </c>
+      <c r="K20" s="24">
         <f t="shared" ref="K20" si="9">(E20-E19)/E19</f>
-        <v>9.5797559873474922E-2</v>
-      </c>
-      <c r="L20" s="30">
+        <v>5.0553547220967013E-2</v>
+      </c>
+      <c r="L20" s="24">
         <f t="shared" ref="L20" si="10">(F20-F19)/F19</f>
-        <v>1.7860397302715509E-2</v>
+        <v>-3.6012392928740658E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="22">
         <f>B19+B19*H27</f>
-        <v>5826.8329369553694</v>
-      </c>
-      <c r="C22" s="28">
+        <v>5792.9933348771165</v>
+      </c>
+      <c r="C22" s="22">
         <f t="shared" ref="C22:F22" si="11">C19+C19*I27</f>
-        <v>7116.8224834546072</v>
-      </c>
-      <c r="D22" s="28">
+        <v>7108.8672169078372</v>
+      </c>
+      <c r="D22" s="22">
         <f t="shared" si="11"/>
-        <v>16807.503165566784</v>
-      </c>
-      <c r="E22" s="28">
+        <v>16888.457388260493</v>
+      </c>
+      <c r="E22" s="22">
         <f t="shared" si="11"/>
-        <v>21077.759451919253</v>
-      </c>
-      <c r="F22" s="28">
+        <v>21025.544879778186</v>
+      </c>
+      <c r="F22" s="22">
         <f t="shared" si="11"/>
-        <v>33370.551721891767</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25">
+        <v>33263.976519618496</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19">
         <f>H27</f>
-        <v>0.10629066583546032</v>
-      </c>
-      <c r="I22" s="25">
+        <v>9.9865831569606378E-2</v>
+      </c>
+      <c r="I22" s="19">
         <f t="shared" ref="I22:L22" si="12">I27</f>
-        <v>0.11776699912904154</v>
-      </c>
-      <c r="J22" s="25">
+        <v>0.11651754623964772</v>
+      </c>
+      <c r="J22" s="19">
         <f t="shared" si="12"/>
-        <v>0.1699501020163432</v>
-      </c>
-      <c r="K22" s="25">
+        <v>0.17558522819577416</v>
+      </c>
+      <c r="K22" s="19">
         <f t="shared" si="12"/>
-        <v>0.19056481314500973</v>
-      </c>
-      <c r="L22" s="25">
+        <v>0.18761550382841086</v>
+      </c>
+      <c r="L22" s="19">
         <f t="shared" si="12"/>
-        <v>0.21634961625266147</v>
+        <v>0.21246497246650242</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="26">
         <f>B20-B22</f>
-        <v>-257.83293695536941</v>
-      </c>
-      <c r="C23" s="32">
+        <v>-748.99333487711647</v>
+      </c>
+      <c r="C23" s="26">
         <f t="shared" ref="C23:F23" si="13">C20-C22</f>
-        <v>-479.82248345460721</v>
-      </c>
-      <c r="D23" s="32">
+        <v>-596.86721690783725</v>
+      </c>
+      <c r="D23" s="26">
         <f t="shared" si="13"/>
-        <v>-2391.5031655667844</v>
-      </c>
-      <c r="E23" s="32">
+        <v>-1245.4573882604927</v>
+      </c>
+      <c r="E23" s="26">
         <f t="shared" si="13"/>
-        <v>-1677.7594519192535</v>
-      </c>
-      <c r="F23" s="32">
+        <v>-2426.5448797781864</v>
+      </c>
+      <c r="F23" s="26">
         <f t="shared" si="13"/>
-        <v>-5445.5517218917666</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="23">
+        <v>-6816.9765196184962</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="17">
         <f>H20-H22</f>
-        <v>-4.8952522679963834E-2</v>
-      </c>
-      <c r="I23" s="23">
+        <v>-0.14220492403210874</v>
+      </c>
+      <c r="I23" s="17">
         <f t="shared" ref="I23:L23" si="14">I20-I22</f>
-        <v>-7.5360842383321414E-2</v>
-      </c>
-      <c r="J23" s="23">
+        <v>-9.3743869468798022E-2</v>
+      </c>
+      <c r="J23" s="17">
         <f t="shared" si="14"/>
-        <v>-0.16646966208873634</v>
-      </c>
-      <c r="K23" s="23">
+        <v>-8.6694792444695218E-2</v>
+      </c>
+      <c r="K23" s="17">
         <f t="shared" si="14"/>
-        <v>-9.4767253271534804E-2</v>
-      </c>
-      <c r="L23" s="23">
+        <v>-0.13706195660744386</v>
+      </c>
+      <c r="L23" s="17">
         <f t="shared" si="14"/>
-        <v>-0.19848921894994595</v>
+        <v>-0.24847736539524307</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19">
         <f>(B20/1000)</f>
-        <v>5.569</v>
-      </c>
-      <c r="I26" s="25">
+        <v>5.0439999999999996</v>
+      </c>
+      <c r="I26" s="19">
         <f t="shared" ref="I26:L26" si="15">(C20/1000)</f>
-        <v>6.6369999999999996</v>
-      </c>
-      <c r="J26" s="25">
+        <v>6.5119999999999996</v>
+      </c>
+      <c r="J26" s="19">
         <f t="shared" si="15"/>
-        <v>14.416</v>
-      </c>
-      <c r="K26" s="25">
+        <v>15.643000000000001</v>
+      </c>
+      <c r="K26" s="19">
         <f t="shared" si="15"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="L26" s="25">
+        <v>18.599</v>
+      </c>
+      <c r="L26" s="19">
         <f t="shared" si="15"/>
-        <v>27.925000000000001</v>
+        <v>26.446999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="35">
+      <c r="B27" s="44"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="27">
         <f>POWER(H26,(1/17))-1</f>
-        <v>0.10629066583546032</v>
-      </c>
-      <c r="I27" s="35">
+        <v>9.9865831569606378E-2</v>
+      </c>
+      <c r="I27" s="27">
         <f t="shared" ref="I27:L27" si="16">POWER(I26,(1/17))-1</f>
-        <v>0.11776699912904154</v>
-      </c>
-      <c r="J27" s="35">
+        <v>0.11651754623964772</v>
+      </c>
+      <c r="J27" s="27">
         <f t="shared" si="16"/>
-        <v>0.1699501020163432</v>
-      </c>
-      <c r="K27" s="35">
+        <v>0.17558522819577416</v>
+      </c>
+      <c r="K27" s="27">
         <f t="shared" si="16"/>
-        <v>0.19056481314500973</v>
-      </c>
-      <c r="L27" s="35">
+        <v>0.18761550382841086</v>
+      </c>
+      <c r="L27" s="27">
         <f t="shared" si="16"/>
-        <v>0.21634961625266147</v>
+        <v>0.21246497246650242</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:15" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="35">
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="27">
         <f>(K23+L23)/(J23+K23+L23)</f>
-        <v>0.63789384665174409</v>
-      </c>
-      <c r="K29" s="35">
+        <v>0.81641565106716774</v>
+      </c>
+      <c r="K29" s="27">
         <f>(J23+L23)/(J23+K23+L23)</f>
-        <v>0.79386150536400191</v>
-      </c>
-      <c r="L29" s="35">
+        <v>0.70975846002181231</v>
+      </c>
+      <c r="L29" s="27">
         <f>(J23+K23)/(J23+K23+L23)</f>
-        <v>0.56824464798425389</v>
+        <v>0.47382588891101973</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="35">
+      <c r="B30" s="40"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="27">
         <f>J29/($J$29+$K$29+$L$29)</f>
-        <v>0.31894692332587204</v>
-      </c>
-      <c r="K30" s="35">
+        <v>0.40820782553358398</v>
+      </c>
+      <c r="K30" s="27">
         <f>K29/($J$29+$K$29+$L$29)</f>
-        <v>0.39693075268200095</v>
-      </c>
-      <c r="L30" s="35">
+        <v>0.35487923001090621</v>
+      </c>
+      <c r="L30" s="27">
         <f>L29/($J$29+$K$29+$L$29)</f>
-        <v>0.28412232399212695</v>
+        <v>0.23691294445550992</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
     </row>
     <row r="31" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43">
+      <c r="B31" s="32"/>
+      <c r="C31" s="33">
         <v>900</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="44">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="34">
         <f>$C$31*J30</f>
-        <v>287.05223099328487</v>
-      </c>
-      <c r="K31" s="44">
+        <v>367.3870429802256</v>
+      </c>
+      <c r="K31" s="34">
         <f t="shared" ref="K31:L31" si="17">$C$31*K30</f>
-        <v>357.23767741380084</v>
-      </c>
-      <c r="L31" s="44">
+        <v>319.39130700981559</v>
+      </c>
+      <c r="L31" s="34">
         <f t="shared" si="17"/>
-        <v>255.71009159291424</v>
+        <v>213.22165000995892</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="35">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="27">
         <f>J30*0.9</f>
-        <v>0.28705223099328486</v>
-      </c>
-      <c r="K33" s="35">
+        <v>0.36738704298022556</v>
+      </c>
+      <c r="K33" s="27">
         <f t="shared" ref="K33:L33" si="18">K30*0.9</f>
-        <v>0.35723767741380086</v>
-      </c>
-      <c r="L33" s="35">
+        <v>0.31939130700981561</v>
+      </c>
+      <c r="L33" s="27">
         <f t="shared" si="18"/>
-        <v>0.25571009159291425</v>
+        <v>0.21322165000995894</v>
       </c>
     </row>
   </sheetData>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE6424-CD3E-4B51-9A4C-3E08B27592F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F062F48-A76C-4DBC-BBE7-E08AAA872F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 20210125" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 20210928" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -177,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -339,6 +345,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,7 +1427,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="L19" activeCellId="4" sqref="J13:J14 K14 L16 L18 L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1820,7 +1829,7 @@
       <c r="J12" s="21">
         <v>0.27629999999999999</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="45">
         <f t="shared" si="4"/>
         <v>0.41986120290812956</v>
       </c>
@@ -1858,7 +1867,7 @@
         <f t="shared" si="1"/>
         <v>0.38991903891355445</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="45">
         <v>0.57369999999999999</v>
       </c>
       <c r="K13" s="19">
@@ -1899,10 +1908,10 @@
         <f t="shared" si="1"/>
         <v>0.43122886133032695</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="45">
         <v>0.50109999999999999</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="45">
         <f t="shared" si="4"/>
         <v>0.58028140904101388</v>
       </c>
@@ -1987,7 +1996,7 @@
         <f t="shared" si="4"/>
         <v>1.5639030230469919E-2</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="45">
         <f t="shared" si="3"/>
         <v>0.55974996935899002</v>
       </c>
@@ -2069,7 +2078,7 @@
         <f t="shared" si="4"/>
         <v>0.29917455204348703</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="45">
         <f t="shared" si="3"/>
         <v>0.64722108704536163</v>
       </c>
@@ -2110,7 +2119,7 @@
         <f t="shared" si="4"/>
         <v>0.37176507050984037</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="45">
         <f t="shared" si="3"/>
         <v>0.70160640079389691</v>
       </c>
@@ -2120,40 +2129,40 @@
         <v>2021</v>
       </c>
       <c r="B20" s="23">
-        <v>5044</v>
+        <v>4883</v>
       </c>
       <c r="C20" s="23">
-        <v>6512</v>
+        <v>7198</v>
       </c>
       <c r="D20" s="23">
-        <v>15643</v>
+        <v>17302</v>
       </c>
       <c r="E20" s="23">
-        <v>18599</v>
+        <v>16552</v>
       </c>
       <c r="F20" s="23">
-        <v>26447</v>
+        <v>23136</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="24">
         <f t="shared" ref="H20" si="6">(B20-B19)/B19</f>
-        <v>-4.2339092462502372E-2</v>
+        <v>-7.2906778052022017E-2</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" ref="I20" si="7">(C20-C19)/C19</f>
-        <v>2.2773676770849693E-2</v>
+        <v>0.13051672687293858</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" ref="J20" si="8">(D20-D19)/D19</f>
-        <v>8.8890435751078939E-2</v>
+        <v>0.20437143254907419</v>
       </c>
       <c r="K20" s="24">
         <f t="shared" ref="K20" si="9">(E20-E19)/E19</f>
-        <v>5.0553547220967013E-2</v>
+        <v>-6.507004066877542E-2</v>
       </c>
       <c r="L20" s="24">
         <f t="shared" ref="L20" si="10">(F20-F19)/F19</f>
-        <v>-3.6012392928740658E-2</v>
+        <v>-0.15669764898851832</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2176,44 +2185,44 @@
       </c>
       <c r="B22" s="22">
         <f>B19+B19*H27</f>
-        <v>5792.9933348771165</v>
+        <v>5781.9496058382056</v>
       </c>
       <c r="C22" s="22">
         <f t="shared" ref="C22:F22" si="11">C19+C19*I27</f>
-        <v>7108.8672169078372</v>
+        <v>7150.8731790328402</v>
       </c>
       <c r="D22" s="22">
         <f t="shared" si="11"/>
-        <v>16888.457388260493</v>
+        <v>16988.892045497687</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="11"/>
-        <v>21025.544879778186</v>
+        <v>20881.82673099398</v>
       </c>
       <c r="F22" s="22">
         <f t="shared" si="11"/>
-        <v>33263.976519618496</v>
+        <v>33003.288516263965</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="19">
         <f>H27</f>
-        <v>9.9865831569606378E-2</v>
+        <v>9.7769053700057951E-2</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ref="I22:L22" si="12">I27</f>
-        <v>0.11651754623964772</v>
+        <v>0.12311499592160202</v>
       </c>
       <c r="J22" s="19">
         <f t="shared" si="12"/>
-        <v>0.17558522819577416</v>
+        <v>0.18257636401905097</v>
       </c>
       <c r="K22" s="19">
         <f t="shared" si="12"/>
-        <v>0.18761550382841086</v>
+        <v>0.17949766894453112</v>
       </c>
       <c r="L22" s="19">
         <f t="shared" si="12"/>
-        <v>0.21246497246650242</v>
+        <v>0.20296294938086268</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2222,44 +2231,44 @@
       </c>
       <c r="B23" s="26">
         <f>B20-B22</f>
-        <v>-748.99333487711647</v>
+        <v>-898.94960583820557</v>
       </c>
       <c r="C23" s="26">
         <f t="shared" ref="C23:F23" si="13">C20-C22</f>
-        <v>-596.86721690783725</v>
+        <v>47.126820967159802</v>
       </c>
       <c r="D23" s="26">
         <f t="shared" si="13"/>
-        <v>-1245.4573882604927</v>
+        <v>313.10795450231308</v>
       </c>
       <c r="E23" s="26">
         <f t="shared" si="13"/>
-        <v>-2426.5448797781864</v>
+        <v>-4329.8267309939802</v>
       </c>
       <c r="F23" s="26">
         <f t="shared" si="13"/>
-        <v>-6816.9765196184962</v>
+        <v>-9867.288516263965</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="17">
         <f>H20-H22</f>
-        <v>-0.14220492403210874</v>
+        <v>-0.17067583175207995</v>
       </c>
       <c r="I23" s="17">
         <f t="shared" ref="I23:L23" si="14">I20-I22</f>
-        <v>-9.3743869468798022E-2</v>
+        <v>7.4017309513365603E-3</v>
       </c>
       <c r="J23" s="17">
         <f t="shared" si="14"/>
-        <v>-8.6694792444695218E-2</v>
+        <v>2.1795068530023221E-2</v>
       </c>
       <c r="K23" s="17">
         <f t="shared" si="14"/>
-        <v>-0.13706195660744386</v>
+        <v>-0.24456770961330654</v>
       </c>
       <c r="L23" s="17">
         <f t="shared" si="14"/>
-        <v>-0.24847736539524307</v>
+        <v>-0.35966059836938102</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2300,23 +2309,23 @@
       <c r="G26" s="18"/>
       <c r="H26" s="19">
         <f>(B20/1000)</f>
-        <v>5.0439999999999996</v>
+        <v>4.883</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ref="I26:L26" si="15">(C20/1000)</f>
-        <v>6.5119999999999996</v>
+        <v>7.1980000000000004</v>
       </c>
       <c r="J26" s="19">
         <f t="shared" si="15"/>
-        <v>15.643000000000001</v>
+        <v>17.302</v>
       </c>
       <c r="K26" s="19">
         <f t="shared" si="15"/>
-        <v>18.599</v>
+        <v>16.552</v>
       </c>
       <c r="L26" s="19">
         <f t="shared" si="15"/>
-        <v>26.446999999999999</v>
+        <v>23.135999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2331,23 +2340,23 @@
       <c r="G27" s="15"/>
       <c r="H27" s="27">
         <f>POWER(H26,(1/17))-1</f>
-        <v>9.9865831569606378E-2</v>
+        <v>9.7769053700057951E-2</v>
       </c>
       <c r="I27" s="27">
         <f t="shared" ref="I27:L27" si="16">POWER(I26,(1/17))-1</f>
-        <v>0.11651754623964772</v>
+        <v>0.12311499592160202</v>
       </c>
       <c r="J27" s="27">
         <f t="shared" si="16"/>
-        <v>0.17558522819577416</v>
+        <v>0.18257636401905097</v>
       </c>
       <c r="K27" s="27">
         <f t="shared" si="16"/>
-        <v>0.18761550382841086</v>
+        <v>0.17949766894453112</v>
       </c>
       <c r="L27" s="27">
         <f t="shared" si="16"/>
-        <v>0.21246497246650242</v>
+        <v>0.20296294938086268</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2378,15 +2387,15 @@
       <c r="I29" s="29"/>
       <c r="J29" s="27">
         <f>(K23+L23)/(J23+K23+L23)</f>
-        <v>0.81641565106716774</v>
+        <v>1.0374207154634665</v>
       </c>
       <c r="K29" s="27">
         <f>(J23+L23)/(J23+K23+L23)</f>
-        <v>0.70975846002181231</v>
+        <v>0.58009314536523271</v>
       </c>
       <c r="L29" s="27">
         <f>(J23+K23)/(J23+K23+L23)</f>
-        <v>0.47382588891101973</v>
+        <v>0.38248613917130075</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2403,15 +2412,15 @@
       <c r="I30" s="29"/>
       <c r="J30" s="27">
         <f>J29/($J$29+$K$29+$L$29)</f>
-        <v>0.40820782553358398</v>
+        <v>0.51871035773173324</v>
       </c>
       <c r="K30" s="27">
         <f>K29/($J$29+$K$29+$L$29)</f>
-        <v>0.35487923001090621</v>
+        <v>0.29004657268261635</v>
       </c>
       <c r="L30" s="27">
         <f>L29/($J$29+$K$29+$L$29)</f>
-        <v>0.23691294445550992</v>
+        <v>0.19124306958565038</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -2433,15 +2442,15 @@
       <c r="I31" s="25"/>
       <c r="J31" s="34">
         <f>$C$31*J30</f>
-        <v>367.3870429802256</v>
+        <v>466.83932195855994</v>
       </c>
       <c r="K31" s="34">
         <f t="shared" ref="K31:L31" si="17">$C$31*K30</f>
-        <v>319.39130700981559</v>
+        <v>261.04191541435472</v>
       </c>
       <c r="L31" s="34">
         <f t="shared" si="17"/>
-        <v>213.22165000995892</v>
+        <v>172.11876262708535</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2472,15 +2481,15 @@
       <c r="I33" s="25"/>
       <c r="J33" s="27">
         <f>J30*0.9</f>
-        <v>0.36738704298022556</v>
+        <v>0.46683932195855993</v>
       </c>
       <c r="K33" s="27">
         <f t="shared" ref="K33:L33" si="18">K30*0.9</f>
-        <v>0.31939130700981561</v>
+        <v>0.26104191541435473</v>
       </c>
       <c r="L33" s="27">
         <f t="shared" si="18"/>
-        <v>0.21322165000995894</v>
+        <v>0.17211876262708534</v>
       </c>
     </row>
   </sheetData>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F062F48-A76C-4DBC-BBE7-E08AAA872F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17854CCA-B7DC-4E81-B426-5E174680E857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -316,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,9 +355,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,21 +658,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1379,10 +1386,10 @@
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1427,7 +1434,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" activeCellId="4" sqref="J13:J14 K14 L16 L18 L19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1447,21 +1454,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -1829,7 +1836,7 @@
       <c r="J12" s="21">
         <v>0.27629999999999999</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="35">
         <f t="shared" si="4"/>
         <v>0.41986120290812956</v>
       </c>
@@ -1867,7 +1874,7 @@
         <f t="shared" si="1"/>
         <v>0.38991903891355445</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="35">
         <v>0.57369999999999999</v>
       </c>
       <c r="K13" s="19">
@@ -1908,10 +1915,10 @@
         <f t="shared" si="1"/>
         <v>0.43122886133032695</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="35">
         <v>0.50109999999999999</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="35">
         <f t="shared" si="4"/>
         <v>0.58028140904101388</v>
       </c>
@@ -1996,7 +2003,7 @@
         <f t="shared" si="4"/>
         <v>1.5639030230469919E-2</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="35">
         <f t="shared" si="3"/>
         <v>0.55974996935899002</v>
       </c>
@@ -2078,7 +2085,7 @@
         <f t="shared" si="4"/>
         <v>0.29917455204348703</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="35">
         <f t="shared" si="3"/>
         <v>0.64722108704536163</v>
       </c>
@@ -2119,7 +2126,7 @@
         <f t="shared" si="4"/>
         <v>0.37176507050984037</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="35">
         <f t="shared" si="3"/>
         <v>0.70160640079389691</v>
       </c>
@@ -2129,40 +2136,40 @@
         <v>2021</v>
       </c>
       <c r="B20" s="23">
-        <v>4883</v>
+        <v>4851</v>
       </c>
       <c r="C20" s="23">
-        <v>7198</v>
+        <v>7221</v>
       </c>
       <c r="D20" s="23">
-        <v>17302</v>
+        <v>16457</v>
       </c>
       <c r="E20" s="23">
-        <v>16552</v>
+        <v>16616</v>
       </c>
       <c r="F20" s="23">
-        <v>23136</v>
+        <v>24636</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="24">
         <f t="shared" ref="H20" si="6">(B20-B19)/B19</f>
-        <v>-7.2906778052022017E-2</v>
+        <v>-7.8982342889690527E-2</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" ref="I20" si="7">(C20-C19)/C19</f>
-        <v>0.13051672687293858</v>
+        <v>0.13412910318831475</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" ref="J20" si="8">(D20-D19)/D19</f>
-        <v>0.20437143254907419</v>
+        <v>0.14555199777251845</v>
       </c>
       <c r="K20" s="24">
         <f t="shared" ref="K20" si="9">(E20-E19)/E19</f>
-        <v>-6.507004066877542E-2</v>
+        <v>-6.1455038409399004E-2</v>
       </c>
       <c r="L20" s="24">
         <f t="shared" ref="L20" si="10">(F20-F19)/F19</f>
-        <v>-0.15669764898851832</v>
+        <v>-0.10202296336796063</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2185,44 +2192,44 @@
       </c>
       <c r="B22" s="22">
         <f>B19+B19*H27</f>
-        <v>5781.9496058382056</v>
+        <v>5779.713812816789</v>
       </c>
       <c r="C22" s="22">
         <f t="shared" ref="C22:F22" si="11">C19+C19*I27</f>
-        <v>7150.8731790328402</v>
+        <v>7152.2152453089802</v>
       </c>
       <c r="D22" s="22">
         <f t="shared" si="11"/>
-        <v>16988.892045497687</v>
+        <v>16938.927197764751</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="11"/>
-        <v>20881.82673099398</v>
+        <v>20886.567623251631</v>
       </c>
       <c r="F22" s="22">
         <f t="shared" si="11"/>
-        <v>33003.288516263965</v>
+        <v>33125.468923356399</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="19">
         <f>H27</f>
-        <v>9.7769053700057951E-2</v>
+        <v>9.7344562904269738E-2</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ref="I22:L22" si="12">I27</f>
-        <v>0.12311499592160202</v>
+        <v>0.12332578063593225</v>
       </c>
       <c r="J22" s="19">
         <f t="shared" si="12"/>
-        <v>0.18257636401905097</v>
+        <v>0.17909837099852077</v>
       </c>
       <c r="K22" s="19">
         <f t="shared" si="12"/>
-        <v>0.17949766894453112</v>
+        <v>0.17976545544801348</v>
       </c>
       <c r="L22" s="19">
         <f t="shared" si="12"/>
-        <v>0.20296294938086268</v>
+        <v>0.20741639961204306</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2231,44 +2238,44 @@
       </c>
       <c r="B23" s="26">
         <f>B20-B22</f>
-        <v>-898.94960583820557</v>
+        <v>-928.71381281678896</v>
       </c>
       <c r="C23" s="26">
         <f t="shared" ref="C23:F23" si="13">C20-C22</f>
-        <v>47.126820967159802</v>
+        <v>68.784754691019771</v>
       </c>
       <c r="D23" s="26">
         <f t="shared" si="13"/>
-        <v>313.10795450231308</v>
+        <v>-481.92719776475133</v>
       </c>
       <c r="E23" s="26">
         <f t="shared" si="13"/>
-        <v>-4329.8267309939802</v>
+        <v>-4270.5676232516307</v>
       </c>
       <c r="F23" s="26">
         <f t="shared" si="13"/>
-        <v>-9867.288516263965</v>
+        <v>-8489.4689233563986</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="17">
         <f>H20-H22</f>
-        <v>-0.17067583175207995</v>
+        <v>-0.17632690579396026</v>
       </c>
       <c r="I23" s="17">
         <f t="shared" ref="I23:L23" si="14">I20-I22</f>
-        <v>7.4017309513365603E-3</v>
+        <v>1.0803322552382505E-2</v>
       </c>
       <c r="J23" s="17">
         <f t="shared" si="14"/>
-        <v>2.1795068530023221E-2</v>
+        <v>-3.3546373226002318E-2</v>
       </c>
       <c r="K23" s="17">
         <f t="shared" si="14"/>
-        <v>-0.24456770961330654</v>
+        <v>-0.24122049385741248</v>
       </c>
       <c r="L23" s="17">
         <f t="shared" si="14"/>
-        <v>-0.35966059836938102</v>
+        <v>-0.30943936298000368</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2309,30 +2316,30 @@
       <c r="G26" s="18"/>
       <c r="H26" s="19">
         <f>(B20/1000)</f>
-        <v>4.883</v>
+        <v>4.851</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ref="I26:L26" si="15">(C20/1000)</f>
-        <v>7.1980000000000004</v>
+        <v>7.2210000000000001</v>
       </c>
       <c r="J26" s="19">
         <f t="shared" si="15"/>
-        <v>17.302</v>
+        <v>16.457000000000001</v>
       </c>
       <c r="K26" s="19">
         <f t="shared" si="15"/>
-        <v>16.552</v>
+        <v>16.616</v>
       </c>
       <c r="L26" s="19">
         <f t="shared" si="15"/>
-        <v>23.135999999999999</v>
+        <v>24.635999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2340,23 +2347,23 @@
       <c r="G27" s="15"/>
       <c r="H27" s="27">
         <f>POWER(H26,(1/17))-1</f>
-        <v>9.7769053700057951E-2</v>
+        <v>9.7344562904269738E-2</v>
       </c>
       <c r="I27" s="27">
         <f t="shared" ref="I27:L27" si="16">POWER(I26,(1/17))-1</f>
-        <v>0.12311499592160202</v>
+        <v>0.12332578063593225</v>
       </c>
       <c r="J27" s="27">
         <f t="shared" si="16"/>
-        <v>0.18257636401905097</v>
+        <v>0.17909837099852077</v>
       </c>
       <c r="K27" s="27">
         <f t="shared" si="16"/>
-        <v>0.17949766894453112</v>
+        <v>0.17976545544801348</v>
       </c>
       <c r="L27" s="27">
         <f t="shared" si="16"/>
-        <v>0.20296294938086268</v>
+        <v>0.20741639961204306</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2374,11 +2381,11 @@
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:15" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -2387,22 +2394,22 @@
       <c r="I29" s="29"/>
       <c r="J29" s="27">
         <f>(K23+L23)/(J23+K23+L23)</f>
-        <v>1.0374207154634665</v>
+        <v>0.94257785778429515</v>
       </c>
       <c r="K29" s="27">
         <f>(J23+L23)/(J23+K23+L23)</f>
-        <v>0.58009314536523271</v>
+        <v>0.58709701909336565</v>
       </c>
       <c r="L29" s="27">
         <f>(J23+K23)/(J23+K23+L23)</f>
-        <v>0.38248613917130075</v>
+        <v>0.47032512312233893</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="30"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -2412,15 +2419,15 @@
       <c r="I30" s="29"/>
       <c r="J30" s="27">
         <f>J29/($J$29+$K$29+$L$29)</f>
-        <v>0.51871035773173324</v>
+        <v>0.47128892889214768</v>
       </c>
       <c r="K30" s="27">
         <f>K29/($J$29+$K$29+$L$29)</f>
-        <v>0.29004657268261635</v>
+        <v>0.29354850954668288</v>
       </c>
       <c r="L30" s="27">
         <f>L29/($J$29+$K$29+$L$29)</f>
-        <v>0.19124306958565038</v>
+        <v>0.23516256156116952</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -2442,15 +2449,15 @@
       <c r="I31" s="25"/>
       <c r="J31" s="34">
         <f>$C$31*J30</f>
-        <v>466.83932195855994</v>
+        <v>424.16003600293294</v>
       </c>
       <c r="K31" s="34">
         <f t="shared" ref="K31:L31" si="17">$C$31*K30</f>
-        <v>261.04191541435472</v>
+        <v>264.19365859201457</v>
       </c>
       <c r="L31" s="34">
         <f t="shared" si="17"/>
-        <v>172.11876262708535</v>
+        <v>211.64630540505257</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2481,15 +2488,15 @@
       <c r="I33" s="25"/>
       <c r="J33" s="27">
         <f>J30*0.9</f>
-        <v>0.46683932195855993</v>
+        <v>0.42416003600293295</v>
       </c>
       <c r="K33" s="27">
         <f t="shared" ref="K33:L33" si="18">K30*0.9</f>
-        <v>0.26104191541435473</v>
+        <v>0.2641936585920146</v>
       </c>
       <c r="L33" s="27">
         <f t="shared" si="18"/>
-        <v>0.17211876262708534</v>
+        <v>0.21164630540505258</v>
       </c>
     </row>
   </sheetData>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17854CCA-B7DC-4E81-B426-5E174680E857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BAD17F-E0FB-4F8F-9347-A9D014391615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 20210928" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 20220405" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1431,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F952F159-CCE4-47E5-A079-7D80BB1CE1C7}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2095,7 +2095,7 @@
         <v>2020</v>
       </c>
       <c r="B19" s="18">
-        <v>5267</v>
+        <v>5211</v>
       </c>
       <c r="C19" s="18">
         <v>6367</v>
@@ -2112,7 +2112,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>0.285888671875</v>
+        <v>0.272216796875</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" si="1"/>
@@ -2136,281 +2136,297 @@
         <v>2021</v>
       </c>
       <c r="B20" s="23">
-        <v>4851</v>
+        <v>4940</v>
       </c>
       <c r="C20" s="23">
-        <v>7221</v>
+        <v>7359</v>
       </c>
       <c r="D20" s="23">
-        <v>16457</v>
+        <v>17272</v>
       </c>
       <c r="E20" s="23">
-        <v>16616</v>
+        <v>16809</v>
       </c>
       <c r="F20" s="23">
-        <v>24636</v>
+        <v>25216</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="24">
         <f t="shared" ref="H20" si="6">(B20-B19)/B19</f>
-        <v>-7.8982342889690527E-2</v>
+        <v>-5.2005373248896564E-2</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" ref="I20" si="7">(C20-C19)/C19</f>
-        <v>0.13412910318831475</v>
+        <v>0.15580336108057169</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" ref="J20" si="8">(D20-D19)/D19</f>
-        <v>0.14555199777251845</v>
+        <v>0.20228316859251008</v>
       </c>
       <c r="K20" s="24">
         <f t="shared" ref="K20" si="9">(E20-E19)/E19</f>
-        <v>-6.1455038409399004E-2</v>
+        <v>-5.0553547220967013E-2</v>
       </c>
       <c r="L20" s="24">
         <f t="shared" ref="L20" si="10">(F20-F19)/F19</f>
-        <v>-0.10202296336796063</v>
+        <v>-8.088208492801166E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="16">
+        <v>4276</v>
+      </c>
+      <c r="C21" s="16">
+        <v>6364</v>
+      </c>
+      <c r="D21" s="16">
+        <v>15802</v>
+      </c>
+      <c r="E21" s="16">
+        <v>14365</v>
+      </c>
+      <c r="F21" s="16">
+        <v>21302</v>
+      </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="H21" s="24">
+        <f t="shared" ref="H21" si="11">(B21-B20)/B20</f>
+        <v>-0.13441295546558704</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" ref="I21" si="12">(C21-C20)/C20</f>
+        <v>-0.13520858812338632</v>
+      </c>
+      <c r="J21" s="24">
+        <f t="shared" ref="J21" si="13">(D21-D20)/D20</f>
+        <v>-8.5108846688281614E-2</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" ref="K21" si="14">(E21-E20)/E20</f>
+        <v>-0.14539829853054911</v>
+      </c>
+      <c r="L21" s="24">
+        <f t="shared" ref="L21" si="15">(F21-F20)/F20</f>
+        <v>-0.15521890862944163</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="22">
-        <f>B19+B19*H27</f>
-        <v>5779.713812816789</v>
-      </c>
-      <c r="C22" s="22">
-        <f t="shared" ref="C22:F22" si="11">C19+C19*I27</f>
-        <v>7152.2152453089802</v>
-      </c>
-      <c r="D22" s="22">
-        <f t="shared" si="11"/>
-        <v>16938.927197764751</v>
-      </c>
-      <c r="E22" s="22">
-        <f t="shared" si="11"/>
-        <v>20886.567623251631</v>
-      </c>
-      <c r="F22" s="22">
-        <f t="shared" si="11"/>
-        <v>33125.468923356399</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19">
-        <f>H27</f>
-        <v>9.7344562904269738E-2</v>
-      </c>
-      <c r="I22" s="19">
-        <f t="shared" ref="I22:L22" si="12">I27</f>
-        <v>0.12332578063593225</v>
-      </c>
-      <c r="J22" s="19">
-        <f t="shared" si="12"/>
-        <v>0.17909837099852077</v>
-      </c>
-      <c r="K22" s="19">
-        <f t="shared" si="12"/>
-        <v>0.17976545544801348</v>
-      </c>
-      <c r="L22" s="19">
-        <f t="shared" si="12"/>
-        <v>0.20741639961204306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="B23" s="22">
+        <f>B19+B19*H28</f>
+        <v>5649.0929800645372</v>
+      </c>
+      <c r="C23" s="22">
+        <f t="shared" ref="C23:F23" si="16">C19+C19*I28</f>
+        <v>7056.4541828465663</v>
+      </c>
+      <c r="D23" s="22">
+        <f t="shared" si="16"/>
+        <v>16746.766939675243</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" si="16"/>
+        <v>20528.922640505501</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="16"/>
+        <v>32516.672488956425</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19">
+        <f>H28</f>
+        <v>8.4070807918736667E-2</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" ref="I23:L23" si="17">I28</f>
+        <v>0.1082855635066069</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" si="17"/>
+        <v>0.16572232630344175</v>
+      </c>
+      <c r="K23" s="19">
+        <f t="shared" si="17"/>
+        <v>0.1595640894998589</v>
+      </c>
+      <c r="L23" s="19">
+        <f t="shared" si="17"/>
+        <v>0.18522589717355298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="26">
-        <f>B20-B22</f>
-        <v>-928.71381281678896</v>
-      </c>
-      <c r="C23" s="26">
-        <f t="shared" ref="C23:F23" si="13">C20-C22</f>
-        <v>68.784754691019771</v>
-      </c>
-      <c r="D23" s="26">
-        <f t="shared" si="13"/>
-        <v>-481.92719776475133</v>
-      </c>
-      <c r="E23" s="26">
-        <f t="shared" si="13"/>
-        <v>-4270.5676232516307</v>
-      </c>
-      <c r="F23" s="26">
-        <f t="shared" si="13"/>
-        <v>-8489.4689233563986</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="17">
-        <f>H20-H22</f>
-        <v>-0.17632690579396026</v>
-      </c>
-      <c r="I23" s="17">
-        <f t="shared" ref="I23:L23" si="14">I20-I22</f>
-        <v>1.0803322552382505E-2</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="14"/>
-        <v>-3.3546373226002318E-2</v>
-      </c>
-      <c r="K23" s="17">
-        <f t="shared" si="14"/>
-        <v>-0.24122049385741248</v>
-      </c>
-      <c r="L23" s="17">
-        <f t="shared" si="14"/>
-        <v>-0.30943936298000368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="B24" s="26">
+        <f>B20-B23</f>
+        <v>-709.09298006453719</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" ref="C24:F24" si="18">C20-C23</f>
+        <v>302.54581715343375</v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" si="18"/>
+        <v>525.23306032475739</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="18"/>
+        <v>-3719.9226405055015</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="18"/>
+        <v>-7300.6724889564248</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="17">
+        <f>H21-H23</f>
+        <v>-0.21848376338432371</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" ref="I24:L24" si="19">I21-I23</f>
+        <v>-0.24349415162999322</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="19"/>
+        <v>-0.25083117299172336</v>
+      </c>
+      <c r="K24" s="17">
+        <f t="shared" si="19"/>
+        <v>-0.30496238803040798</v>
+      </c>
+      <c r="L24" s="17">
+        <f t="shared" si="19"/>
+        <v>-0.34044480580299463</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19">
-        <f>(B20/1000)</f>
-        <v>4.851</v>
-      </c>
-      <c r="I26" s="19">
-        <f t="shared" ref="I26:L26" si="15">(C20/1000)</f>
-        <v>7.2210000000000001</v>
-      </c>
-      <c r="J26" s="19">
-        <f t="shared" si="15"/>
-        <v>16.457000000000001</v>
-      </c>
-      <c r="K26" s="19">
-        <f t="shared" si="15"/>
-        <v>16.616</v>
-      </c>
-      <c r="L26" s="19">
-        <f t="shared" si="15"/>
-        <v>24.635999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19">
+        <f>(B21/1000)</f>
+        <v>4.2759999999999998</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" ref="I27:L27" si="20">(C21/1000)</f>
+        <v>6.3639999999999999</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" si="20"/>
+        <v>15.802</v>
+      </c>
+      <c r="K27" s="19">
+        <f t="shared" si="20"/>
+        <v>14.365</v>
+      </c>
+      <c r="L27" s="19">
+        <f t="shared" si="20"/>
+        <v>21.302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="27">
-        <f>POWER(H26,(1/17))-1</f>
-        <v>9.7344562904269738E-2</v>
-      </c>
-      <c r="I27" s="27">
-        <f t="shared" ref="I27:L27" si="16">POWER(I26,(1/17))-1</f>
-        <v>0.12332578063593225</v>
-      </c>
-      <c r="J27" s="27">
-        <f t="shared" si="16"/>
-        <v>0.17909837099852077</v>
-      </c>
-      <c r="K27" s="27">
-        <f t="shared" si="16"/>
-        <v>0.17976545544801348</v>
-      </c>
-      <c r="L27" s="27">
-        <f t="shared" si="16"/>
-        <v>0.20741639961204306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+      <c r="H28" s="27">
+        <f>POWER(H27,(1/18))-1</f>
+        <v>8.4070807918736667E-2</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" ref="I28:L28" si="21">POWER(I27,(1/18))-1</f>
+        <v>0.1082855635066069</v>
+      </c>
+      <c r="J28" s="27">
+        <f t="shared" si="21"/>
+        <v>0.16572232630344175</v>
+      </c>
+      <c r="K28" s="27">
+        <f t="shared" si="21"/>
+        <v>0.1595640894998589</v>
+      </c>
+      <c r="L28" s="27">
+        <f t="shared" si="21"/>
+        <v>0.18522589717355298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="27">
-        <f>(K23+L23)/(J23+K23+L23)</f>
-        <v>0.94257785778429515</v>
-      </c>
-      <c r="K29" s="27">
-        <f>(J23+L23)/(J23+K23+L23)</f>
-        <v>0.58709701909336565</v>
-      </c>
-      <c r="L29" s="27">
-        <f>(J23+K23)/(J23+K23+L23)</f>
-        <v>0.47032512312233893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
-        <v>18</v>
-      </c>
       <c r="B30" s="41"/>
-      <c r="C30" s="30"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -2418,66 +2434,75 @@
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="27">
-        <f>J29/($J$29+$K$29+$L$29)</f>
-        <v>0.47128892889214768</v>
+        <f>(K24+L24)/(J24+K24+L24)</f>
+        <v>0.72012894975666042</v>
       </c>
       <c r="K30" s="27">
-        <f>K29/($J$29+$K$29+$L$29)</f>
-        <v>0.29354850954668288</v>
+        <f>(J24+L24)/(J24+K24+L24)</f>
+        <v>0.65973071526638594</v>
       </c>
       <c r="L30" s="27">
-        <f>L29/($J$29+$K$29+$L$29)</f>
-        <v>0.23516256156116952</v>
-      </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
+        <f>(J24+K24)/(J24+K24+L24)</f>
+        <v>0.62014033497695353</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="41"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="27">
+        <f>J30/($J$30+$K$30+$L$30)</f>
+        <v>0.36006447487833021</v>
+      </c>
+      <c r="K31" s="27">
+        <f>K30/($J$30+$K$30+$L$30)</f>
+        <v>0.32986535763319297</v>
+      </c>
+      <c r="L31" s="27">
+        <f>L30/($J$30+$K$30+$L$30)</f>
+        <v>0.31007016748847677</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33">
+      <c r="B32" s="32"/>
+      <c r="C32" s="33">
         <v>900</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="34">
-        <f>$C$31*J30</f>
-        <v>424.16003600293294</v>
-      </c>
-      <c r="K31" s="34">
-        <f t="shared" ref="K31:L31" si="17">$C$31*K30</f>
-        <v>264.19365859201457</v>
-      </c>
-      <c r="L31" s="34">
-        <f t="shared" si="17"/>
-        <v>211.64630540505257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="J32" s="34">
+        <f>$C$32*J31</f>
+        <v>324.05802739049722</v>
+      </c>
+      <c r="K32" s="34">
+        <f t="shared" ref="K32:L32" si="22">$C$32*K31</f>
+        <v>296.87882186987366</v>
+      </c>
+      <c r="L32" s="34">
+        <f t="shared" si="22"/>
+        <v>279.06315073962907</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -2486,26 +2511,42 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="27">
-        <f>J30*0.9</f>
-        <v>0.42416003600293295</v>
-      </c>
-      <c r="K33" s="27">
-        <f t="shared" ref="K33:L33" si="18">K30*0.9</f>
-        <v>0.2641936585920146</v>
-      </c>
-      <c r="L33" s="27">
-        <f t="shared" si="18"/>
-        <v>0.21164630540505258</v>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+    </row>
+    <row r="34" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="27">
+        <f>J31*0.9</f>
+        <v>0.32405802739049722</v>
+      </c>
+      <c r="K34" s="27">
+        <f t="shared" ref="K34:L34" si="23">K31*0.9</f>
+        <v>0.29687882186987369</v>
+      </c>
+      <c r="L34" s="27">
+        <f t="shared" si="23"/>
+        <v>0.27906315073962912</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BAD17F-E0FB-4F8F-9347-A9D014391615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B6319F-8E6C-4F5B-B8D0-4483E102DDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 20220405" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 20221030" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentManualCount="12"/>
   <extLst>
@@ -237,38 +237,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -293,12 +289,6 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -321,18 +311,17 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -657,761 +646,759 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="36" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2004</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1000</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1000</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>1000</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1000</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2005</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>923</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>860</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <f>D3*(1+J4)</f>
         <v>990.9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="9">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7">
         <f t="shared" ref="H4:H18" si="0">(B4-B3)/B3</f>
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <f t="shared" ref="I4:I18" si="1">(C4-C3)/C3</f>
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2006</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2041</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1726</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <f t="shared" ref="D5:D14" si="2">D4*(1+J5)</f>
         <v>2004.1943399999998</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>1.2112676056338028</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <f t="shared" si="1"/>
         <v>1.0069767441860464</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="8">
         <v>1.0226</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2007</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5338</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>4967</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <f t="shared" si="2"/>
         <v>6274.7316396719989</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="9">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>1.6153846153846154</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>1.8777520278099653</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>2.1307999999999998</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>2008</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1817</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1939</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <f t="shared" si="2"/>
         <v>2981.1250020081666</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>-0.65961034095166726</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <f t="shared" si="1"/>
         <v>-0.6096235152003221</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>-0.52490000000000003</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2009</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>3575</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>4485</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <f t="shared" si="2"/>
         <v>6989.5456797083471</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>5909</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="9">
+      <c r="G8" s="2"/>
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>0.96752889378095763</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>1.3130479628674574</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>1.3446</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>2010</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>3128</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4936</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f t="shared" si="2"/>
         <v>7748.610340524674</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>6953</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>-0.12503496503496503</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <f t="shared" si="1"/>
         <v>0.10055741360089186</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="8">
         <v>0.1086</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8">
         <f t="shared" ref="L9:L18" si="3">(F9-F8)/F8</f>
         <v>0.17667964122524962</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>2011</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>2345</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>3266</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <f t="shared" si="2"/>
         <v>5876.5460822539126</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>5647</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>5626</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="9">
+      <c r="G10" s="2"/>
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>-0.25031969309462915</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>-0.33833063209076175</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>-0.24160000000000001</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
         <f t="shared" si="3"/>
         <v>-0.19085286926506545</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2012</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2522</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>3275</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <f t="shared" si="2"/>
         <v>5841.8744603686146</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>6052</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>5528</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>7.5479744136460553E-2</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <f t="shared" si="1"/>
         <v>2.7556644213104714E-3</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="8">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="8">
         <f t="shared" ref="K11:K18" si="4">(E11-E10)/E10</f>
         <v>7.1719497078094566E-2</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="8">
         <f t="shared" si="3"/>
         <v>-1.7419125488801989E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>2013</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>2330</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3829</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <f t="shared" si="2"/>
         <v>7455.9843737684623</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>8593</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>5581</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="9">
+      <c r="G12" s="2"/>
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>-7.6130055511498804E-2</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <f t="shared" si="1"/>
         <v>0.16916030534351145</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>0.27629999999999999</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <f t="shared" si="4"/>
         <v>0.41986120290812956</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <f t="shared" si="3"/>
         <v>9.5875542691751092E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2014</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>3533</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>5322</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <f t="shared" si="2"/>
         <v>11733.482608999429</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>10021</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>6409</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>0.51630901287553643</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <f t="shared" si="1"/>
         <v>0.38991903891355445</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="8">
         <v>0.57369999999999999</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="8">
         <f t="shared" si="4"/>
         <v>0.1661817758640754</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="8">
         <f t="shared" si="3"/>
         <v>0.14836050886937824</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>2015</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>3731</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>7617</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <f t="shared" si="2"/>
         <v>17613.130744369046</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>15836</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>8107</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="9">
+      <c r="G14" s="2"/>
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>5.6043022926691194E-2</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
         <v>0.43122886133032695</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="11">
         <v>0.50109999999999999</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <f t="shared" si="4"/>
         <v>0.58028140904101388</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="7">
         <f t="shared" si="3"/>
         <v>0.26493992822593226</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2016</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>3310</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>6263</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>13777</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>13364</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>8159</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>-0.11283838113106406</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="8">
         <f t="shared" si="1"/>
         <v>-0.17776027307338849</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="8">
         <v>-0.13389999999999999</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="8">
         <f t="shared" si="4"/>
         <v>-0.15610002525890376</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <f t="shared" si="3"/>
         <v>6.4142099420254105E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>2017</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>4030</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>6250</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>14285</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>13573</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>12726</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="9">
+      <c r="G16" s="2"/>
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>0.2175226586102719</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <f t="shared" si="1"/>
         <v>-2.0756825802331152E-3</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <f>(D16-D15)/D15</f>
         <v>3.6873049285040281E-2</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <f t="shared" si="4"/>
         <v>1.5639030230469919E-2</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="7">
         <f t="shared" si="3"/>
         <v>0.55974996935899002</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2018</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>3010</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>4168</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>10276</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>9934</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>9788</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>-0.25310173697270472</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <f t="shared" si="1"/>
         <v>-0.33312000000000003</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="8">
         <f>(D17-D16)/D16</f>
         <v>-0.28064403220161011</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="8">
         <f t="shared" si="4"/>
         <v>-0.26810579827598907</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="8">
         <f t="shared" si="3"/>
         <v>-0.23086594373723088</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>3648</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>4942</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>12447</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>11708</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>14858</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="9">
+      <c r="G18" s="2"/>
+      <c r="H18" s="7">
         <f t="shared" si="0"/>
         <v>0.21196013289036544</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <f t="shared" si="1"/>
         <v>0.18570057581573896</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <f>(D18-D17)/D17</f>
         <v>0.21126897625535226</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <f t="shared" si="4"/>
         <v>0.17857861888463861</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <f t="shared" si="3"/>
         <v>0.5179812014711892</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
       <c r="N19"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="N20"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
       <c r="N21"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
       <c r="N22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
         <f>(B18/1000)</f>
         <v>3.6480000000000001</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <f>(C18/1000)</f>
         <v>4.9420000000000002</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="8">
         <f>(D18/1000)</f>
         <v>12.446999999999999</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="8">
         <f>(E18/1000)</f>
         <v>11.708</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="8">
         <f>(F18/1000)</f>
         <v>14.858000000000001</v>
       </c>
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="12">
+      <c r="B24" s="34"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="10">
         <f>POWER(H23,(1/15))-1</f>
         <v>9.0109995894335437E-2</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="10">
         <f>POWER(I23,(1/15))-1</f>
         <v>0.11239795740567771</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="10">
         <f>POWER(J23,(1/15))-1</f>
         <v>0.18305330363776462</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="10">
         <f>POWER(K23,(1/15))-1</f>
         <v>0.17823570921056242</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="10">
         <f>POWER(L23,(1/15))-1</f>
         <v>0.19710071519578198</v>
       </c>
@@ -1434,12 +1421,12 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
@@ -1453,1091 +1440,1091 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="43" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>2004</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>1000</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>1000</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>1000</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>1000</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>1000</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>2005</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>923</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>860</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <f>D3*(1+J4)</f>
         <v>990.9</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="17">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15">
         <f t="shared" ref="H4:H19" si="0">(B4-B3)/B3</f>
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <f t="shared" ref="I4:I19" si="1">(C4-C3)/C3</f>
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="19">
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>2006</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>2041</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>1726</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <f t="shared" ref="D5:D14" si="2">D4*(1+J5)</f>
         <v>2004.1943399999998</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17">
         <f t="shared" si="0"/>
         <v>1.2112676056338028</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="17">
         <f t="shared" si="1"/>
         <v>1.0069767441860464</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>1.0226</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>2007</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>5338</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>4967</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <f t="shared" si="2"/>
         <v>6274.7316396719989</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15">
         <f t="shared" si="0"/>
         <v>1.6153846153846154</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <f t="shared" si="1"/>
         <v>1.8777520278099653</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>2.1307999999999998</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>2008</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>1817</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>1939</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <f t="shared" si="2"/>
         <v>2981.1250020081666</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17">
         <f t="shared" si="0"/>
         <v>-0.65961034095166726</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <f t="shared" si="1"/>
         <v>-0.6096235152003221</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <v>-0.52490000000000003</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>2009</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>3575</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>4485</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <f t="shared" si="2"/>
         <v>6989.5456797083471</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
         <v>5909</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="17">
+      <c r="G8" s="13"/>
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>0.96752889378095763</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <f t="shared" si="1"/>
         <v>1.3130479628674574</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>1.3446</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>2010</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <v>3128</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>4936</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <f t="shared" si="2"/>
         <v>7748.610340524674</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
         <v>6953</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19">
+      <c r="G9" s="16"/>
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
         <v>-0.12503496503496503</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f t="shared" si="1"/>
         <v>0.10055741360089186</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <v>0.1086</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17">
         <f t="shared" ref="L9:L19" si="3">(F9-F8)/F8</f>
         <v>0.17667964122524962</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>2011</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>2345</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>3266</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <f t="shared" si="2"/>
         <v>5876.5460822539126</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>5647</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>5626</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17">
+      <c r="G10" s="13"/>
+      <c r="H10" s="15">
         <f t="shared" si="0"/>
         <v>-0.25031969309462915</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="15">
         <f t="shared" si="1"/>
         <v>-0.33833063209076175</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>-0.24160000000000001</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17">
+      <c r="K10" s="15"/>
+      <c r="L10" s="15">
         <f t="shared" si="3"/>
         <v>-0.19085286926506545</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>2012</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="16">
         <v>2522</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>3275</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <f t="shared" si="2"/>
         <v>5841.8744603686146</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>6052</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>5528</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17">
         <f t="shared" si="0"/>
         <v>7.5479744136460553E-2</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <f t="shared" si="1"/>
         <v>2.7556644213104714E-3</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="17">
         <f t="shared" ref="K11:K19" si="4">(E11-E10)/E10</f>
         <v>7.1719497078094566E-2</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <f t="shared" si="3"/>
         <v>-1.7419125488801989E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>2013</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>2330</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>3829</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <f t="shared" si="2"/>
         <v>7455.9843737684623</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>8593</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>5581</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="17">
+      <c r="G12" s="13"/>
+      <c r="H12" s="15">
         <f t="shared" si="0"/>
         <v>-7.6130055511498804E-2</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <f t="shared" si="1"/>
         <v>0.16916030534351145</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="19">
         <v>0.27629999999999999</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="30">
         <f t="shared" si="4"/>
         <v>0.41986120290812956</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="15">
         <f t="shared" si="3"/>
         <v>9.5875542691751092E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>2014</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="16">
         <v>3533</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>5322</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <f t="shared" si="2"/>
         <v>11733.482608999429</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>10021</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>6409</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19">
+      <c r="G13" s="16"/>
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>0.51630901287553643</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <f t="shared" si="1"/>
         <v>0.38991903891355445</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="30">
         <v>0.57369999999999999</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="17">
         <f t="shared" si="4"/>
         <v>0.1661817758640754</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="17">
         <f t="shared" si="3"/>
         <v>0.14836050886937824</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>2015</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>3731</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>7617</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <f t="shared" si="2"/>
         <v>17613.130744369046</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>15836</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>8107</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="17">
+      <c r="G14" s="13"/>
+      <c r="H14" s="15">
         <f t="shared" si="0"/>
         <v>5.6043022926691194E-2</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="15">
         <f t="shared" si="1"/>
         <v>0.43122886133032695</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="30">
         <v>0.50109999999999999</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="30">
         <f t="shared" si="4"/>
         <v>0.58028140904101388</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="15">
         <f t="shared" si="3"/>
         <v>0.26493992822593226</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>2016</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <v>3310</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <v>6263</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>13777</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>13364</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <v>8159</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19">
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
         <f t="shared" si="0"/>
         <v>-0.11283838113106406</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <f t="shared" si="1"/>
         <v>-0.17776027307338849</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <v>-0.13389999999999999</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="17">
         <f t="shared" si="4"/>
         <v>-0.15610002525890376</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="17">
         <f t="shared" si="3"/>
         <v>6.4142099420254105E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>2017</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>4030</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>6250</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>14285</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>13573</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>12726</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17">
+      <c r="G16" s="13"/>
+      <c r="H16" s="15">
         <f t="shared" si="0"/>
         <v>0.2175226586102719</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="15">
         <f t="shared" si="1"/>
         <v>-2.0756825802331152E-3</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <f>(D16-D15)/D15</f>
         <v>3.6873049285040281E-2</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="15">
         <f t="shared" si="4"/>
         <v>1.5639030230469919E-2</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="30">
         <f t="shared" si="3"/>
         <v>0.55974996935899002</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>2018</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="16">
         <v>3010</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <v>4168</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>10276</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>9934</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <v>9788</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19">
+      <c r="G17" s="16"/>
+      <c r="H17" s="17">
         <f t="shared" si="0"/>
         <v>-0.25310173697270472</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="17">
         <f t="shared" si="1"/>
         <v>-0.33312000000000003</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <f>(D17-D16)/D16</f>
         <v>-0.28064403220161011</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="17">
         <f t="shared" si="4"/>
         <v>-0.26810579827598907</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="17">
         <f t="shared" si="3"/>
         <v>-0.23086594373723088</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>2019</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>4096</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>5267</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>12600</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>12906</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>16123</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="17">
+      <c r="G18" s="13"/>
+      <c r="H18" s="15">
         <f t="shared" si="0"/>
         <v>0.36079734219269105</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="15">
         <f t="shared" si="1"/>
         <v>0.2636756238003839</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <f>(D18-D17)/D17</f>
         <v>0.22615803814713897</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <f t="shared" si="4"/>
         <v>0.29917455204348703</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="30">
         <f t="shared" si="3"/>
         <v>0.64722108704536163</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>2020</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="16">
         <v>5211</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>6367</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>14366</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>17704</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <v>27435</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19">
+      <c r="G19" s="16"/>
+      <c r="H19" s="17">
         <f t="shared" si="0"/>
         <v>0.272216796875</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f t="shared" si="1"/>
         <v>0.20884754129485475</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <f t="shared" ref="J19" si="5">(D19-D18)/D18</f>
         <v>0.14015873015873015</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f t="shared" si="4"/>
         <v>0.37176507050984037</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="30">
         <f t="shared" si="3"/>
         <v>0.70160640079389691</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="A20" s="13">
         <v>2021</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="13">
         <v>4940</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="13">
         <v>7359</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="13">
         <v>17272</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="13">
         <v>16809</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="13">
         <v>25216</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24">
+      <c r="G20" s="13"/>
+      <c r="H20" s="15">
         <f t="shared" ref="H20" si="6">(B20-B19)/B19</f>
         <v>-5.2005373248896564E-2</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="15">
         <f t="shared" ref="I20" si="7">(C20-C19)/C19</f>
         <v>0.15580336108057169</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="15">
         <f t="shared" ref="J20" si="8">(D20-D19)/D19</f>
         <v>0.20228316859251008</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="15">
         <f t="shared" ref="K20" si="9">(E20-E19)/E19</f>
         <v>-5.0553547220967013E-2</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="15">
         <f t="shared" ref="L20" si="10">(F20-F19)/F19</f>
         <v>-8.088208492801166E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>2022</v>
       </c>
-      <c r="B21" s="16">
-        <v>4276</v>
-      </c>
-      <c r="C21" s="16">
-        <v>6364</v>
-      </c>
-      <c r="D21" s="16">
-        <v>15802</v>
-      </c>
-      <c r="E21" s="16">
-        <v>14365</v>
-      </c>
-      <c r="F21" s="16">
-        <v>21302</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="24">
+      <c r="B21" s="14">
+        <v>3541</v>
+      </c>
+      <c r="C21" s="14">
+        <v>5781</v>
+      </c>
+      <c r="D21" s="14">
+        <v>14206</v>
+      </c>
+      <c r="E21" s="14">
+        <v>13218</v>
+      </c>
+      <c r="F21" s="14">
+        <v>17907</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15">
         <f t="shared" ref="H21" si="11">(B21-B20)/B20</f>
-        <v>-0.13441295546558704</v>
-      </c>
-      <c r="I21" s="24">
+        <v>-0.28319838056680163</v>
+      </c>
+      <c r="I21" s="15">
         <f t="shared" ref="I21" si="12">(C21-C20)/C20</f>
-        <v>-0.13520858812338632</v>
-      </c>
-      <c r="J21" s="24">
+        <v>-0.21443130860171219</v>
+      </c>
+      <c r="J21" s="15">
         <f t="shared" ref="J21" si="13">(D21-D20)/D20</f>
-        <v>-8.5108846688281614E-2</v>
-      </c>
-      <c r="K21" s="24">
+        <v>-0.17751273737841594</v>
+      </c>
+      <c r="K21" s="15">
         <f t="shared" ref="K21" si="14">(E21-E20)/E20</f>
-        <v>-0.14539829853054911</v>
-      </c>
-      <c r="L21" s="24">
+        <v>-0.21363555238265214</v>
+      </c>
+      <c r="L21" s="15">
         <f t="shared" ref="L21" si="15">(F21-F20)/F20</f>
-        <v>-0.15521890862944163</v>
+        <v>-0.28985564720812185</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <f>B19+B19*H28</f>
-        <v>5649.0929800645372</v>
-      </c>
-      <c r="C23" s="22">
+        <v>5590.2093092981868</v>
+      </c>
+      <c r="C23" s="20">
         <f t="shared" ref="C23:F23" si="16">C19+C19*I28</f>
-        <v>7056.4541828465663</v>
-      </c>
-      <c r="D23" s="22">
+        <v>7018.888577090087</v>
+      </c>
+      <c r="D23" s="20">
         <f t="shared" si="16"/>
-        <v>16746.766939675243</v>
-      </c>
-      <c r="E23" s="22">
+        <v>16648.000252197406</v>
+      </c>
+      <c r="E23" s="20">
         <f t="shared" si="16"/>
-        <v>20528.922640505501</v>
-      </c>
-      <c r="F23" s="22">
+        <v>20434.235155234262</v>
+      </c>
+      <c r="F23" s="20">
         <f t="shared" si="16"/>
-        <v>32516.672488956425</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19">
+        <v>32204.558091518484</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17">
         <f>H28</f>
-        <v>8.4070807918736667E-2</v>
-      </c>
-      <c r="I23" s="19">
+        <v>7.2770928669772861E-2</v>
+      </c>
+      <c r="I23" s="17">
         <f t="shared" ref="I23:L23" si="17">I28</f>
-        <v>0.1082855635066069</v>
-      </c>
-      <c r="J23" s="19">
+        <v>0.10238551548454322</v>
+      </c>
+      <c r="J23" s="17">
         <f t="shared" si="17"/>
-        <v>0.16572232630344175</v>
-      </c>
-      <c r="K23" s="19">
+        <v>0.15884729585113511</v>
+      </c>
+      <c r="K23" s="17">
         <f t="shared" si="17"/>
-        <v>0.1595640894998589</v>
-      </c>
-      <c r="L23" s="19">
+        <v>0.15421572273126194</v>
+      </c>
+      <c r="L23" s="17">
         <f t="shared" si="17"/>
-        <v>0.18522589717355298</v>
+        <v>0.17384939280184009</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="22">
         <f>B20-B23</f>
-        <v>-709.09298006453719</v>
-      </c>
-      <c r="C24" s="26">
+        <v>-650.20930929818678</v>
+      </c>
+      <c r="C24" s="22">
         <f t="shared" ref="C24:F24" si="18">C20-C23</f>
-        <v>302.54581715343375</v>
-      </c>
-      <c r="D24" s="26">
+        <v>340.11142290991302</v>
+      </c>
+      <c r="D24" s="22">
         <f t="shared" si="18"/>
-        <v>525.23306032475739</v>
-      </c>
-      <c r="E24" s="26">
+        <v>623.99974780259436</v>
+      </c>
+      <c r="E24" s="22">
         <f t="shared" si="18"/>
-        <v>-3719.9226405055015</v>
-      </c>
-      <c r="F24" s="26">
+        <v>-3625.2351552342625</v>
+      </c>
+      <c r="F24" s="22">
         <f t="shared" si="18"/>
-        <v>-7300.6724889564248</v>
-      </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="17">
+        <v>-6988.5580915184837</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="15">
         <f>H21-H23</f>
-        <v>-0.21848376338432371</v>
-      </c>
-      <c r="I24" s="17">
+        <v>-0.35596930923657449</v>
+      </c>
+      <c r="I24" s="15">
         <f t="shared" ref="I24:L24" si="19">I21-I23</f>
-        <v>-0.24349415162999322</v>
-      </c>
-      <c r="J24" s="17">
+        <v>-0.31681682408625544</v>
+      </c>
+      <c r="J24" s="15">
         <f t="shared" si="19"/>
-        <v>-0.25083117299172336</v>
-      </c>
-      <c r="K24" s="17">
+        <v>-0.33636003322955105</v>
+      </c>
+      <c r="K24" s="15">
         <f t="shared" si="19"/>
-        <v>-0.30496238803040798</v>
-      </c>
-      <c r="L24" s="17">
+        <v>-0.36785127511391408</v>
+      </c>
+      <c r="L24" s="15">
         <f t="shared" si="19"/>
-        <v>-0.34044480580299463</v>
+        <v>-0.46370504000996193</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17">
         <f>(B21/1000)</f>
-        <v>4.2759999999999998</v>
-      </c>
-      <c r="I27" s="19">
+        <v>3.5409999999999999</v>
+      </c>
+      <c r="I27" s="17">
         <f t="shared" ref="I27:L27" si="20">(C21/1000)</f>
-        <v>6.3639999999999999</v>
-      </c>
-      <c r="J27" s="19">
+        <v>5.7809999999999997</v>
+      </c>
+      <c r="J27" s="17">
         <f t="shared" si="20"/>
-        <v>15.802</v>
-      </c>
-      <c r="K27" s="19">
+        <v>14.206</v>
+      </c>
+      <c r="K27" s="17">
         <f t="shared" si="20"/>
-        <v>14.365</v>
-      </c>
-      <c r="L27" s="19">
+        <v>13.218</v>
+      </c>
+      <c r="L27" s="17">
         <f t="shared" si="20"/>
-        <v>21.302</v>
+        <v>17.907</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="27">
+      <c r="B28" s="40"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="23">
         <f>POWER(H27,(1/18))-1</f>
-        <v>8.4070807918736667E-2</v>
-      </c>
-      <c r="I28" s="27">
+        <v>7.2770928669772861E-2</v>
+      </c>
+      <c r="I28" s="23">
         <f t="shared" ref="I28:L28" si="21">POWER(I27,(1/18))-1</f>
-        <v>0.1082855635066069</v>
-      </c>
-      <c r="J28" s="27">
+        <v>0.10238551548454322</v>
+      </c>
+      <c r="J28" s="23">
         <f t="shared" si="21"/>
-        <v>0.16572232630344175</v>
-      </c>
-      <c r="K28" s="27">
+        <v>0.15884729585113511</v>
+      </c>
+      <c r="K28" s="23">
         <f t="shared" si="21"/>
-        <v>0.1595640894998589</v>
-      </c>
-      <c r="L28" s="27">
+        <v>0.15421572273126194</v>
+      </c>
+      <c r="L28" s="23">
         <f t="shared" si="21"/>
-        <v>0.18522589717355298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+        <v>0.17384939280184009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="27">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="23">
         <f>(K24+L24)/(J24+K24+L24)</f>
-        <v>0.72012894975666042</v>
-      </c>
-      <c r="K30" s="27">
+        <v>0.71199989305418654</v>
+      </c>
+      <c r="K30" s="23">
         <f>(J24+L24)/(J24+K24+L24)</f>
-        <v>0.65973071526638594</v>
-      </c>
-      <c r="L30" s="27">
+        <v>0.68503628223671598</v>
+      </c>
+      <c r="L30" s="23">
         <f>(J24+K24)/(J24+K24+L24)</f>
-        <v>0.62014033497695353</v>
+        <v>0.6029638247090976</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="27">
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="23">
         <f>J30/($J$30+$K$30+$L$30)</f>
-        <v>0.36006447487833021</v>
-      </c>
-      <c r="K31" s="27">
+        <v>0.35599994652709327</v>
+      </c>
+      <c r="K31" s="23">
         <f>K30/($J$30+$K$30+$L$30)</f>
-        <v>0.32986535763319297</v>
-      </c>
-      <c r="L31" s="27">
+        <v>0.34251814111835799</v>
+      </c>
+      <c r="L31" s="23">
         <f>L30/($J$30+$K$30+$L$30)</f>
-        <v>0.31007016748847677</v>
-      </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+        <v>0.3014819123545488</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33">
+      <c r="B32" s="28"/>
+      <c r="C32" s="14">
         <v>900</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="34">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="29">
         <f>$C$32*J31</f>
-        <v>324.05802739049722</v>
-      </c>
-      <c r="K32" s="34">
+        <v>320.39995187438393</v>
+      </c>
+      <c r="K32" s="29">
         <f t="shared" ref="K32:L32" si="22">$C$32*K31</f>
-        <v>296.87882186987366</v>
-      </c>
-      <c r="L32" s="34">
+        <v>308.2663270065222</v>
+      </c>
+      <c r="L32" s="29">
         <f t="shared" si="22"/>
-        <v>279.06315073962907</v>
+        <v>271.33372111909392</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="27">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="23">
         <f>J31*0.9</f>
-        <v>0.32405802739049722</v>
-      </c>
-      <c r="K34" s="27">
+        <v>0.32039995187438397</v>
+      </c>
+      <c r="K34" s="23">
         <f t="shared" ref="K34:L34" si="23">K31*0.9</f>
-        <v>0.29687882186987369</v>
-      </c>
-      <c r="L34" s="27">
+        <v>0.30826632700652218</v>
+      </c>
+      <c r="L34" s="23">
         <f t="shared" si="23"/>
-        <v>0.27906315073962912</v>
+        <v>0.27133372111909393</v>
       </c>
     </row>
   </sheetData>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B6319F-8E6C-4F5B-B8D0-4483E102DDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05279FA2-191F-404D-84EC-3C3B91E5B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 20221030" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 20230320" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentManualCount="12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1418,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F952F159-CCE4-47E5-A079-7D80BB1CE1C7}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2160,285 +2153,301 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="16">
         <v>2022</v>
       </c>
-      <c r="B21" s="14">
-        <v>3541</v>
-      </c>
-      <c r="C21" s="14">
-        <v>5781</v>
-      </c>
-      <c r="D21" s="14">
-        <v>14206</v>
-      </c>
-      <c r="E21" s="14">
-        <v>13218</v>
-      </c>
-      <c r="F21" s="14">
-        <v>17907</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15">
+      <c r="B21" s="16">
+        <v>3871</v>
+      </c>
+      <c r="C21" s="16">
+        <v>5864</v>
+      </c>
+      <c r="D21" s="20">
+        <v>14690</v>
+      </c>
+      <c r="E21" s="16">
+        <v>13504</v>
+      </c>
+      <c r="F21" s="16">
+        <v>21573</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17">
         <f t="shared" ref="H21" si="11">(B21-B20)/B20</f>
-        <v>-0.28319838056680163</v>
-      </c>
-      <c r="I21" s="15">
+        <v>-0.21639676113360323</v>
+      </c>
+      <c r="I21" s="17">
         <f t="shared" ref="I21" si="12">(C21-C20)/C20</f>
-        <v>-0.21443130860171219</v>
-      </c>
-      <c r="J21" s="15">
+        <v>-0.20315260225574128</v>
+      </c>
+      <c r="J21" s="17">
         <f t="shared" ref="J21" si="13">(D21-D20)/D20</f>
-        <v>-0.17751273737841594</v>
-      </c>
-      <c r="K21" s="15">
+        <v>-0.14949050486336266</v>
+      </c>
+      <c r="K21" s="17">
         <f t="shared" ref="K21" si="14">(E21-E20)/E20</f>
-        <v>-0.21363555238265214</v>
-      </c>
-      <c r="L21" s="15">
+        <v>-0.1966208578737581</v>
+      </c>
+      <c r="L21" s="17">
         <f t="shared" ref="L21" si="15">(F21-F20)/F20</f>
-        <v>-0.28985564720812185</v>
+        <v>-0.14447176395939088</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="14">
+        <v>3939</v>
+      </c>
+      <c r="C22" s="14">
+        <v>6160</v>
+      </c>
+      <c r="D22" s="14">
+        <v>16070</v>
+      </c>
+      <c r="E22" s="14">
+        <v>13391</v>
+      </c>
+      <c r="F22" s="14">
+        <v>21034</v>
+      </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="H22" s="15">
+        <f t="shared" ref="H22" si="16">(B22-B21)/B21</f>
+        <v>1.7566520278997674E-2</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" ref="I22" si="17">(C22-C21)/C21</f>
+        <v>5.0477489768076401E-2</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" ref="J22" si="18">(D22-D21)/D21</f>
+        <v>9.3941456773315182E-2</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" ref="K22" si="19">(E22-E21)/E21</f>
+        <v>-8.3678909952606632E-3</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" ref="L22" si="20">(F22-F21)/F21</f>
+        <v>-2.4984934872294071E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="20">
-        <f>B19+B19*H28</f>
-        <v>5590.2093092981868</v>
-      </c>
-      <c r="C23" s="20">
-        <f t="shared" ref="C23:F23" si="16">C19+C19*I28</f>
-        <v>7018.888577090087</v>
-      </c>
-      <c r="D23" s="20">
-        <f t="shared" si="16"/>
-        <v>16648.000252197406</v>
-      </c>
-      <c r="E23" s="20">
-        <f t="shared" si="16"/>
-        <v>20434.235155234262</v>
-      </c>
-      <c r="F23" s="20">
-        <f t="shared" si="16"/>
-        <v>32204.558091518484</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17">
-        <f>H28</f>
-        <v>7.2770928669772861E-2</v>
-      </c>
-      <c r="I23" s="17">
-        <f t="shared" ref="I23:L23" si="17">I28</f>
-        <v>0.10238551548454322</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="17"/>
-        <v>0.15884729585113511</v>
-      </c>
-      <c r="K23" s="17">
-        <f t="shared" si="17"/>
-        <v>0.15421572273126194</v>
-      </c>
-      <c r="L23" s="17">
-        <f t="shared" si="17"/>
-        <v>0.17384939280184009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="B24" s="20">
+        <f>B19+B19*H29</f>
+        <v>5623.3882887703858</v>
+      </c>
+      <c r="C24" s="20">
+        <f t="shared" ref="C24:F24" si="21">C19+C19*I29</f>
+        <v>7043.6934223487369</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" si="21"/>
+        <v>16762.421002766474</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="21"/>
+        <v>20449.002296323662</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="21"/>
+        <v>32493.809045885042</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17">
+        <f>H29</f>
+        <v>7.9138032771135292E-2</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" ref="I24:L24" si="22">I29</f>
+        <v>0.10628136050710491</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="22"/>
+        <v>0.16681198682768161</v>
+      </c>
+      <c r="K24" s="17">
+        <f t="shared" si="22"/>
+        <v>0.15504983598755429</v>
+      </c>
+      <c r="L24" s="17">
+        <f t="shared" si="22"/>
+        <v>0.18439252946546536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="22">
-        <f>B20-B23</f>
-        <v>-650.20930929818678</v>
-      </c>
-      <c r="C24" s="22">
-        <f t="shared" ref="C24:F24" si="18">C20-C23</f>
-        <v>340.11142290991302</v>
-      </c>
-      <c r="D24" s="22">
-        <f t="shared" si="18"/>
-        <v>623.99974780259436</v>
-      </c>
-      <c r="E24" s="22">
-        <f t="shared" si="18"/>
-        <v>-3625.2351552342625</v>
-      </c>
-      <c r="F24" s="22">
-        <f t="shared" si="18"/>
-        <v>-6988.5580915184837</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="15">
-        <f>H21-H23</f>
-        <v>-0.35596930923657449</v>
-      </c>
-      <c r="I24" s="15">
-        <f t="shared" ref="I24:L24" si="19">I21-I23</f>
-        <v>-0.31681682408625544</v>
-      </c>
-      <c r="J24" s="15">
-        <f t="shared" si="19"/>
-        <v>-0.33636003322955105</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="19"/>
-        <v>-0.36785127511391408</v>
-      </c>
-      <c r="L24" s="15">
-        <f t="shared" si="19"/>
-        <v>-0.46370504000996193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="B25" s="22">
+        <f>B20-B24</f>
+        <v>-683.38828877038577</v>
+      </c>
+      <c r="C25" s="22">
+        <f t="shared" ref="C25:F25" si="23">C20-C24</f>
+        <v>315.30657765126307</v>
+      </c>
+      <c r="D25" s="22">
+        <f t="shared" si="23"/>
+        <v>509.57899723352602</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="23"/>
+        <v>-3640.0022963236624</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="23"/>
+        <v>-7277.809045885042</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="15">
+        <f>H22-H24</f>
+        <v>-6.1571512492137617E-2</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" ref="I25:L25" si="24">I22-I24</f>
+        <v>-5.5803870739028504E-2</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="24"/>
+        <v>-7.2870530054366431E-2</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.16341772698281495</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.20937746433775944</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17">
-        <f>(B21/1000)</f>
-        <v>3.5409999999999999</v>
-      </c>
-      <c r="I27" s="17">
-        <f t="shared" ref="I27:L27" si="20">(C21/1000)</f>
-        <v>5.7809999999999997</v>
-      </c>
-      <c r="J27" s="17">
-        <f t="shared" si="20"/>
-        <v>14.206</v>
-      </c>
-      <c r="K27" s="17">
-        <f t="shared" si="20"/>
-        <v>13.218</v>
-      </c>
-      <c r="L27" s="17">
-        <f t="shared" si="20"/>
-        <v>17.907</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17">
+        <f>(B22/1000)</f>
+        <v>3.9390000000000001</v>
+      </c>
+      <c r="I28" s="17">
+        <f t="shared" ref="I28:L28" si="25">(C22/1000)</f>
+        <v>6.16</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="25"/>
+        <v>16.07</v>
+      </c>
+      <c r="K28" s="17">
+        <f t="shared" si="25"/>
+        <v>13.391</v>
+      </c>
+      <c r="L28" s="17">
+        <f t="shared" si="25"/>
+        <v>21.033999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="23">
-        <f>POWER(H27,(1/18))-1</f>
-        <v>7.2770928669772861E-2</v>
-      </c>
-      <c r="I28" s="23">
-        <f t="shared" ref="I28:L28" si="21">POWER(I27,(1/18))-1</f>
-        <v>0.10238551548454322</v>
-      </c>
-      <c r="J28" s="23">
-        <f t="shared" si="21"/>
-        <v>0.15884729585113511</v>
-      </c>
-      <c r="K28" s="23">
-        <f t="shared" si="21"/>
-        <v>0.15421572273126194</v>
-      </c>
-      <c r="L28" s="23">
-        <f t="shared" si="21"/>
-        <v>0.17384939280184009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="H29" s="23">
+        <f>POWER(H28,(1/18))-1</f>
+        <v>7.9138032771135292E-2</v>
+      </c>
+      <c r="I29" s="23">
+        <f t="shared" ref="I29:L29" si="26">POWER(I28,(1/18))-1</f>
+        <v>0.10628136050710491</v>
+      </c>
+      <c r="J29" s="23">
+        <f t="shared" si="26"/>
+        <v>0.16681198682768161</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" si="26"/>
+        <v>0.15504983598755429</v>
+      </c>
+      <c r="L29" s="23">
+        <f t="shared" si="26"/>
+        <v>0.18439252946546536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="23">
-        <f>(K24+L24)/(J24+K24+L24)</f>
-        <v>0.71199989305418654</v>
-      </c>
-      <c r="K30" s="23">
-        <f>(J24+L24)/(J24+K24+L24)</f>
-        <v>0.68503628223671598</v>
-      </c>
-      <c r="L30" s="23">
-        <f>(J24+K24)/(J24+K24+L24)</f>
-        <v>0.6029638247090976</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
-        <v>18</v>
-      </c>
       <c r="B31" s="36"/>
-      <c r="C31" s="26"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -2446,66 +2455,75 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="23">
-        <f>J30/($J$30+$K$30+$L$30)</f>
-        <v>0.35599994652709327</v>
+        <f>(K22+L22)/(J22+K22+L22)</f>
+        <v>-0.55047993937066708</v>
       </c>
       <c r="K31" s="23">
-        <f>K30/($J$30+$K$30+$L$30)</f>
-        <v>0.34251814111835799</v>
+        <f>(J22+L22)/(J22+K22+L22)</f>
+        <v>1.138109920461416</v>
       </c>
       <c r="L31" s="23">
-        <f>L30/($J$30+$K$30+$L$30)</f>
-        <v>0.3014819123545488</v>
-      </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+        <f>(J22+K22)/(J22+K22+L22)</f>
+        <v>1.4123700189092512</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="23">
+        <f>J31/($J$31+$K$31+$L$31)</f>
+        <v>-0.27523996968533354</v>
+      </c>
+      <c r="K32" s="23">
+        <f>K31/($J$31+$K$31+$L$31)</f>
+        <v>0.56905496023070801</v>
+      </c>
+      <c r="L32" s="23">
+        <f>L31/($J$31+$K$31+$L$31)</f>
+        <v>0.70618500945462559</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="14">
-        <v>900</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="29">
-        <f>$C$32*J31</f>
-        <v>320.39995187438393</v>
-      </c>
-      <c r="K32" s="29">
-        <f t="shared" ref="K32:L32" si="22">$C$32*K31</f>
-        <v>308.2663270065222</v>
-      </c>
-      <c r="L32" s="29">
-        <f t="shared" si="22"/>
-        <v>271.33372111909392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="14">
+        <v>5000</v>
+      </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-    </row>
-    <row r="34" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="J33" s="29">
+        <f>$C$33*J32</f>
+        <v>-1376.1998484266678</v>
+      </c>
+      <c r="K33" s="29">
+        <f t="shared" ref="K33:L33" si="27">$C$33*K32</f>
+        <v>2845.27480115354</v>
+      </c>
+      <c r="L33" s="29">
+        <f t="shared" si="27"/>
+        <v>3530.9250472731278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2514,26 +2532,42 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="23">
-        <f>J31*0.9</f>
-        <v>0.32039995187438397</v>
-      </c>
-      <c r="K34" s="23">
-        <f t="shared" ref="K34:L34" si="23">K31*0.9</f>
-        <v>0.30826632700652218</v>
-      </c>
-      <c r="L34" s="23">
-        <f t="shared" si="23"/>
-        <v>0.27133372111909393</v>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="23">
+        <f>J32*0.9</f>
+        <v>-0.24771597271680018</v>
+      </c>
+      <c r="K35" s="23">
+        <f t="shared" ref="K35:L35" si="28">K32*0.9</f>
+        <v>0.51214946420763718</v>
+      </c>
+      <c r="L35" s="23">
+        <f t="shared" si="28"/>
+        <v>0.63556650850916308</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/500低波医药消费策略指数.xlsx
+++ b/500低波医药消费策略指数.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05279FA2-191F-404D-84EC-3C3B91E5B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF2A2C4-112D-4099-834E-0FCB993B671C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
-    <sheet name="富国500低波医药消费策略指数 20230320" sheetId="2" r:id="rId2"/>
+    <sheet name="富国500低波医药消费策略指数 20230528" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentManualCount="12"/>
   <extLst>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1429,8 @@
     <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
@@ -2198,40 +2199,40 @@
         <v>2023</v>
       </c>
       <c r="B22" s="14">
-        <v>3939</v>
+        <v>3850</v>
       </c>
       <c r="C22" s="14">
-        <v>6160</v>
+        <v>5988</v>
       </c>
       <c r="D22" s="14">
-        <v>16070</v>
+        <v>15901</v>
       </c>
       <c r="E22" s="14">
-        <v>13391</v>
+        <v>13166</v>
       </c>
       <c r="F22" s="14">
-        <v>21034</v>
+        <v>19605</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="15">
         <f t="shared" ref="H22" si="16">(B22-B21)/B21</f>
-        <v>1.7566520278997674E-2</v>
+        <v>-5.4249547920433997E-3</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" ref="I22" si="17">(C22-C21)/C21</f>
-        <v>5.0477489768076401E-2</v>
+        <v>2.1145975443383355E-2</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" ref="J22" si="18">(D22-D21)/D21</f>
-        <v>9.3941456773315182E-2</v>
+        <v>8.2437031994554114E-2</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" ref="K22" si="19">(E22-E21)/E21</f>
-        <v>-8.3678909952606632E-3</v>
+        <v>-2.502962085308057E-2</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" ref="L22" si="20">(F22-F21)/F21</f>
-        <v>-2.4984934872294071E-2</v>
+        <v>-9.1225142539285223E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2254,44 +2255,44 @@
       </c>
       <c r="B24" s="20">
         <f>B19+B19*H29</f>
-        <v>5623.3882887703858</v>
+        <v>5616.2530732586765</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ref="C24:F24" si="21">C19+C19*I29</f>
-        <v>7043.6934223487369</v>
+        <v>7032.6203272261473</v>
       </c>
       <c r="D24" s="20">
         <f t="shared" si="21"/>
-        <v>16762.421002766474</v>
+        <v>16752.578597799133</v>
       </c>
       <c r="E24" s="20">
         <f t="shared" si="21"/>
-        <v>20449.002296323662</v>
+        <v>20429.760788336927</v>
       </c>
       <c r="F24" s="20">
         <f t="shared" si="21"/>
-        <v>32493.809045885042</v>
+        <v>32367.050295964731</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
         <f>H29</f>
-        <v>7.9138032771135292E-2</v>
+        <v>7.7768772454169355E-2</v>
       </c>
       <c r="I24" s="17">
         <f t="shared" ref="I24:L24" si="22">I29</f>
-        <v>0.10628136050710491</v>
+        <v>0.10454222196107232</v>
       </c>
       <c r="J24" s="17">
         <f t="shared" si="22"/>
-        <v>0.16681198682768161</v>
+        <v>0.16612686884304129</v>
       </c>
       <c r="K24" s="17">
         <f t="shared" si="22"/>
-        <v>0.15504983598755429</v>
+        <v>0.15396299075558795</v>
       </c>
       <c r="L24" s="17">
         <f t="shared" si="22"/>
-        <v>0.18439252946546536</v>
+        <v>0.1797721995977668</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2300,44 +2301,44 @@
       </c>
       <c r="B25" s="22">
         <f>B20-B24</f>
-        <v>-683.38828877038577</v>
+        <v>-676.25307325867652</v>
       </c>
       <c r="C25" s="22">
         <f t="shared" ref="C25:F25" si="23">C20-C24</f>
-        <v>315.30657765126307</v>
+        <v>326.37967277385269</v>
       </c>
       <c r="D25" s="22">
         <f t="shared" si="23"/>
-        <v>509.57899723352602</v>
+        <v>519.42140220086731</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" si="23"/>
-        <v>-3640.0022963236624</v>
+        <v>-3620.7607883369274</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="23"/>
-        <v>-7277.809045885042</v>
+        <v>-7151.050295964731</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="15">
         <f>H22-H24</f>
-        <v>-6.1571512492137617E-2</v>
+        <v>-8.3193727246212754E-2</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" ref="I25:L25" si="24">I22-I24</f>
-        <v>-5.5803870739028504E-2</v>
+        <v>-8.3396246517688968E-2</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="24"/>
-        <v>-7.2870530054366431E-2</v>
+        <v>-8.3689836848487173E-2</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="24"/>
-        <v>-0.16341772698281495</v>
+        <v>-0.17899261160866853</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="24"/>
-        <v>-0.20937746433775944</v>
+        <v>-0.27099734213705201</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2378,23 +2379,23 @@
       <c r="G28" s="16"/>
       <c r="H28" s="17">
         <f>(B22/1000)</f>
-        <v>3.9390000000000001</v>
+        <v>3.85</v>
       </c>
       <c r="I28" s="17">
         <f t="shared" ref="I28:L28" si="25">(C22/1000)</f>
-        <v>6.16</v>
+        <v>5.9880000000000004</v>
       </c>
       <c r="J28" s="17">
         <f t="shared" si="25"/>
-        <v>16.07</v>
+        <v>15.901</v>
       </c>
       <c r="K28" s="17">
         <f t="shared" si="25"/>
-        <v>13.391</v>
+        <v>13.166</v>
       </c>
       <c r="L28" s="17">
         <f t="shared" si="25"/>
-        <v>21.033999999999999</v>
+        <v>19.605</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2409,23 +2410,23 @@
       <c r="G29" s="13"/>
       <c r="H29" s="23">
         <f>POWER(H28,(1/18))-1</f>
-        <v>7.9138032771135292E-2</v>
+        <v>7.7768772454169355E-2</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" ref="I29:L29" si="26">POWER(I28,(1/18))-1</f>
-        <v>0.10628136050710491</v>
+        <v>0.10454222196107232</v>
       </c>
       <c r="J29" s="23">
         <f t="shared" si="26"/>
-        <v>0.16681198682768161</v>
+        <v>0.16612686884304129</v>
       </c>
       <c r="K29" s="23">
         <f t="shared" si="26"/>
-        <v>0.15504983598755429</v>
+        <v>0.15396299075558795</v>
       </c>
       <c r="L29" s="23">
         <f t="shared" si="26"/>
-        <v>0.18439252946546536</v>
+        <v>0.1797721995977668</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2456,15 +2457,15 @@
       <c r="I31" s="25"/>
       <c r="J31" s="23">
         <f>(K22+L22)/(J22+K22+L22)</f>
-        <v>-0.55047993937066708</v>
+        <v>3.4376866391424636</v>
       </c>
       <c r="K31" s="23">
         <f>(J22+L22)/(J22+K22+L22)</f>
-        <v>1.138109920461416</v>
+        <v>0.25986694498672913</v>
       </c>
       <c r="L31" s="23">
         <f>(J22+K22)/(J22+K22+L22)</f>
-        <v>1.4123700189092512</v>
+        <v>-1.6975535841291927</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
@@ -2481,15 +2482,15 @@
       <c r="I32" s="25"/>
       <c r="J32" s="23">
         <f>J31/($J$31+$K$31+$L$31)</f>
-        <v>-0.27523996968533354</v>
+        <v>1.7188433195712318</v>
       </c>
       <c r="K32" s="23">
         <f>K31/($J$31+$K$31+$L$31)</f>
-        <v>0.56905496023070801</v>
+        <v>0.12993347249336457</v>
       </c>
       <c r="L32" s="23">
         <f>L31/($J$31+$K$31+$L$31)</f>
-        <v>0.70618500945462559</v>
+        <v>-0.84877679206459633</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -2511,15 +2512,15 @@
       <c r="I33" s="21"/>
       <c r="J33" s="29">
         <f>$C$33*J32</f>
-        <v>-1376.1998484266678</v>
+        <v>8594.2165978561588</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" ref="K33:L33" si="27">$C$33*K32</f>
-        <v>2845.27480115354</v>
+        <v>649.66736246682285</v>
       </c>
       <c r="L33" s="29">
         <f t="shared" si="27"/>
-        <v>3530.9250472731278</v>
+        <v>-4243.8839603229817</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2550,15 +2551,15 @@
       <c r="I35" s="21"/>
       <c r="J35" s="23">
         <f>J32*0.9</f>
-        <v>-0.24771597271680018</v>
+        <v>1.5469589876141088</v>
       </c>
       <c r="K35" s="23">
         <f t="shared" ref="K35:L35" si="28">K32*0.9</f>
-        <v>0.51214946420763718</v>
+        <v>0.11694012524402811</v>
       </c>
       <c r="L35" s="23">
         <f t="shared" si="28"/>
-        <v>0.63556650850916308</v>
+        <v>-0.76389911285813672</v>
       </c>
     </row>
   </sheetData>
